--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,12 @@
     <t>['11', '23']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['8', '32', '38', '40', '55', '65', '90+1']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -569,6 +575,9 @@
   </si>
   <si>
     <t>['90', '90+4']</t>
+  </si>
+  <si>
+    <t>['73', '88']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1198,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1395,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1601,7 +1610,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1682,7 +1691,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,7 +1897,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2425,7 +2434,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2837,7 +2846,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -2915,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.71</v>
@@ -3327,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3536,7 +3545,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3661,7 +3670,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3867,7 +3876,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4073,7 +4082,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4897,7 +4906,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -4978,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5103,7 +5112,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5181,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -5309,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5515,7 +5524,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5596,7 +5605,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5802,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6133,7 +6142,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6339,7 +6348,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6417,7 +6426,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -6545,7 +6554,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6957,7 +6966,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7163,7 +7172,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>3.6</v>
@@ -7244,7 +7253,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7450,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7575,7 +7584,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7781,7 +7790,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7987,7 +7996,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8193,7 +8202,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8605,7 +8614,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8683,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8811,7 +8820,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9017,7 +9026,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9429,7 +9438,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9635,7 +9644,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9716,7 +9725,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
@@ -9919,7 +9928,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10253,7 +10262,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10459,7 +10468,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10540,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10665,7 +10674,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11364,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11489,7 +11498,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11570,7 +11579,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -11773,7 +11782,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -11901,7 +11910,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12185,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12313,7 +12322,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12391,7 +12400,7 @@
         <v>0.4</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ56">
         <v>0.43</v>
@@ -12519,7 +12528,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12725,7 +12734,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12806,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -12931,7 +12940,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13424,7 +13433,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13549,7 +13558,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14042,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14167,7 +14176,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14373,7 +14382,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14451,10 +14460,10 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.79</v>
@@ -14657,7 +14666,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.43</v>
@@ -14785,7 +14794,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15403,7 +15412,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15609,7 +15618,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16021,7 +16030,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16433,7 +16442,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16514,7 +16523,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16720,7 +16729,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -16796,6 +16805,624 @@
       </c>
       <c r="BP77">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7482747</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q78">
+        <v>2.2</v>
+      </c>
+      <c r="R78">
+        <v>2.4</v>
+      </c>
+      <c r="S78">
+        <v>4.75</v>
+      </c>
+      <c r="T78">
+        <v>1.3</v>
+      </c>
+      <c r="U78">
+        <v>3.4</v>
+      </c>
+      <c r="V78">
+        <v>2.38</v>
+      </c>
+      <c r="W78">
+        <v>1.53</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.13</v>
+      </c>
+      <c r="Z78">
+        <v>1.92</v>
+      </c>
+      <c r="AA78">
+        <v>2.82</v>
+      </c>
+      <c r="AB78">
+        <v>4.27</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>17</v>
+      </c>
+      <c r="AE78">
+        <v>1.2</v>
+      </c>
+      <c r="AF78">
+        <v>4.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.61</v>
+      </c>
+      <c r="AH78">
+        <v>2.15</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.2</v>
+      </c>
+      <c r="AL78">
+        <v>1.18</v>
+      </c>
+      <c r="AM78">
+        <v>2.2</v>
+      </c>
+      <c r="AN78">
+        <v>2.5</v>
+      </c>
+      <c r="AO78">
+        <v>1.67</v>
+      </c>
+      <c r="AP78">
+        <v>2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.86</v>
+      </c>
+      <c r="AR78">
+        <v>2.16</v>
+      </c>
+      <c r="AS78">
+        <v>1.29</v>
+      </c>
+      <c r="AT78">
+        <v>3.45</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>13</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>25</v>
+      </c>
+      <c r="AZ78">
+        <v>10</v>
+      </c>
+      <c r="BA78">
+        <v>9</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7482752</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>89</v>
+      </c>
+      <c r="P79" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q79">
+        <v>5.5</v>
+      </c>
+      <c r="R79">
+        <v>2.5</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>1.29</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>2.38</v>
+      </c>
+      <c r="W79">
+        <v>1.53</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.14</v>
+      </c>
+      <c r="Z79">
+        <v>5.97</v>
+      </c>
+      <c r="AA79">
+        <v>1.66</v>
+      </c>
+      <c r="AB79">
+        <v>2.95</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>17</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>4.5</v>
+      </c>
+      <c r="AG79">
+        <v>1.57</v>
+      </c>
+      <c r="AH79">
+        <v>2.25</v>
+      </c>
+      <c r="AI79">
+        <v>1.7</v>
+      </c>
+      <c r="AJ79">
+        <v>2.05</v>
+      </c>
+      <c r="AK79">
+        <v>2.55</v>
+      </c>
+      <c r="AL79">
+        <v>1.17</v>
+      </c>
+      <c r="AM79">
+        <v>1.12</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1.17</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>1.14</v>
+      </c>
+      <c r="AR79">
+        <v>0.96</v>
+      </c>
+      <c r="AS79">
+        <v>1.28</v>
+      </c>
+      <c r="AT79">
+        <v>2.24</v>
+      </c>
+      <c r="AU79">
+        <v>2</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>4</v>
+      </c>
+      <c r="AZ79">
+        <v>12</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7482750</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>7</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q80">
+        <v>1.91</v>
+      </c>
+      <c r="R80">
+        <v>2.5</v>
+      </c>
+      <c r="S80">
+        <v>6.5</v>
+      </c>
+      <c r="T80">
+        <v>1.3</v>
+      </c>
+      <c r="U80">
+        <v>3.4</v>
+      </c>
+      <c r="V80">
+        <v>2.38</v>
+      </c>
+      <c r="W80">
+        <v>1.53</v>
+      </c>
+      <c r="X80">
+        <v>6</v>
+      </c>
+      <c r="Y80">
+        <v>1.13</v>
+      </c>
+      <c r="Z80">
+        <v>2</v>
+      </c>
+      <c r="AA80">
+        <v>2.28</v>
+      </c>
+      <c r="AB80">
+        <v>5.85</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>17</v>
+      </c>
+      <c r="AE80">
+        <v>1.18</v>
+      </c>
+      <c r="AF80">
+        <v>4.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.57</v>
+      </c>
+      <c r="AH80">
+        <v>2.25</v>
+      </c>
+      <c r="AI80">
+        <v>1.8</v>
+      </c>
+      <c r="AJ80">
+        <v>1.95</v>
+      </c>
+      <c r="AK80">
+        <v>1.1</v>
+      </c>
+      <c r="AL80">
+        <v>1.14</v>
+      </c>
+      <c r="AM80">
+        <v>2.8</v>
+      </c>
+      <c r="AN80">
+        <v>2.29</v>
+      </c>
+      <c r="AO80">
+        <v>1.17</v>
+      </c>
+      <c r="AP80">
+        <v>2.38</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
+        <v>1.71</v>
+      </c>
+      <c r="AS80">
+        <v>1.08</v>
+      </c>
+      <c r="AT80">
+        <v>2.79</v>
+      </c>
+      <c r="AU80">
+        <v>13</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>19</v>
+      </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>4</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,10 +448,10 @@
     <t>['11', '23']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
-    <t>['8', '32', '38', '40', '55', '65', '90+1']</t>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['77', '86']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -502,9 +502,6 @@
     <t>['14', '30', '48', '50', '85']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -577,7 +574,7 @@
     <t>['90', '90+4']</t>
   </si>
   <si>
-    <t>['73', '88']</t>
+    <t>['41', '48']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1691,7 +1688,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1894,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2306,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2515,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2721,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2924,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>0.71</v>
@@ -3336,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3545,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4987,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5190,10 +5187,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -5396,10 +5393,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5605,7 +5602,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5808,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6017,7 +6014,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.32</v>
@@ -6426,7 +6423,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -7172,7 +7169,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3.6</v>
@@ -7250,10 +7247,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7456,10 +7453,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7584,7 +7581,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7665,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -7790,7 +7787,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7871,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.35</v>
@@ -7996,7 +7993,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8202,7 +8199,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8614,7 +8611,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8692,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8820,7 +8817,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9026,7 +9023,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9438,7 +9435,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9516,7 +9513,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>2.17</v>
@@ -9644,7 +9641,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9725,7 +9722,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ43">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
@@ -9928,7 +9925,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10137,7 +10134,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10262,7 +10259,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10340,7 +10337,7 @@
         <v>0.75</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>0.86</v>
@@ -10468,7 +10465,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10549,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10674,7 +10671,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10752,7 +10749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10961,7 +10958,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ49">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11373,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11498,7 +11495,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11579,7 +11576,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -11782,7 +11779,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -11910,7 +11907,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11988,7 +11985,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12194,10 +12191,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>2.36</v>
@@ -12322,7 +12319,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12400,10 +12397,10 @@
         <v>0.4</v>
       </c>
       <c r="AP56">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.69</v>
@@ -12528,7 +12525,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12734,7 +12731,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12815,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -12940,7 +12937,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13433,7 +13430,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13842,7 +13839,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.14</v>
@@ -14051,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14176,7 +14173,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14382,7 +14379,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14460,10 +14457,10 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.79</v>
@@ -14666,10 +14663,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>2.3</v>
@@ -14794,7 +14791,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15081,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>0.89</v>
@@ -15412,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15618,7 +15615,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15696,7 +15693,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16030,7 +16027,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16314,7 +16311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>1.14</v>
@@ -16442,7 +16439,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16523,7 +16520,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ76">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16729,7 +16726,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -16812,7 +16809,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7482747</v>
+        <v>7482751</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16821,25 +16818,25 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45619.54166666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F78">
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -16854,124 +16851,124 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q78">
+        <v>2.88</v>
+      </c>
+      <c r="R78">
         <v>2.2</v>
       </c>
-      <c r="R78">
-        <v>2.4</v>
-      </c>
       <c r="S78">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T78">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U78">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V78">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W78">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y78">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z78">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AA78">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="AB78">
-        <v>4.27</v>
+        <v>3.5</v>
       </c>
       <c r="AC78">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD78">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE78">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF78">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AG78">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AH78">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AI78">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ78">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK78">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AL78">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AM78">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AN78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO78">
-        <v>1.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AT78">
-        <v>3.45</v>
+        <v>2.39</v>
       </c>
       <c r="AU78">
+        <v>3</v>
+      </c>
+      <c r="AV78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
         <v>4</v>
       </c>
-      <c r="AV78">
-        <v>2</v>
-      </c>
-      <c r="AW78">
-        <v>13</v>
-      </c>
-      <c r="AX78">
-        <v>5</v>
-      </c>
       <c r="AY78">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AZ78">
+        <v>12</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
         <v>10</v>
-      </c>
-      <c r="BA78">
-        <v>9</v>
-      </c>
-      <c r="BB78">
-        <v>2</v>
-      </c>
-      <c r="BC78">
-        <v>11</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17018,7 +17015,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7482752</v>
+        <v>7482748</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17027,16 +17024,16 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45619.54166666666</v>
+        <v>45620.4375</v>
       </c>
       <c r="F79">
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -17048,136 +17045,136 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="P79" t="s">
         <v>89</v>
       </c>
       <c r="Q79">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="R79">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="T79">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U79">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V79">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W79">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="X79">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>1.98</v>
+      </c>
+      <c r="AA79">
+        <v>3.4</v>
+      </c>
+      <c r="AB79">
+        <v>3.6</v>
+      </c>
+      <c r="AC79">
+        <v>1.91</v>
+      </c>
+      <c r="AD79">
+        <v>1.91</v>
+      </c>
+      <c r="AE79">
+        <v>2.6</v>
+      </c>
+      <c r="AF79">
+        <v>1.5</v>
+      </c>
+      <c r="AG79">
+        <v>1.9</v>
+      </c>
+      <c r="AH79">
+        <v>1.78</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.95</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
         <v>1.14</v>
       </c>
-      <c r="Z79">
-        <v>5.97</v>
-      </c>
-      <c r="AA79">
-        <v>1.66</v>
-      </c>
-      <c r="AB79">
-        <v>2.95</v>
-      </c>
-      <c r="AC79">
-        <v>1.02</v>
-      </c>
-      <c r="AD79">
-        <v>17</v>
-      </c>
-      <c r="AE79">
-        <v>1.2</v>
-      </c>
-      <c r="AF79">
-        <v>4.5</v>
-      </c>
-      <c r="AG79">
-        <v>1.57</v>
-      </c>
-      <c r="AH79">
-        <v>2.25</v>
-      </c>
-      <c r="AI79">
-        <v>1.7</v>
-      </c>
-      <c r="AJ79">
-        <v>2.05</v>
-      </c>
-      <c r="AK79">
-        <v>2.55</v>
-      </c>
-      <c r="AL79">
-        <v>1.17</v>
-      </c>
-      <c r="AM79">
-        <v>1.12</v>
-      </c>
-      <c r="AN79">
-        <v>1</v>
-      </c>
       <c r="AO79">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR79">
-        <v>0.96</v>
+        <v>1.54</v>
       </c>
       <c r="AS79">
-        <v>1.28</v>
+        <v>0.97</v>
       </c>
       <c r="AT79">
-        <v>2.24</v>
+        <v>2.51</v>
       </c>
       <c r="AU79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
         <v>5</v>
       </c>
-      <c r="AW79">
-        <v>1</v>
-      </c>
       <c r="AX79">
+        <v>1</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
         <v>4</v>
       </c>
-      <c r="AY79">
-        <v>4</v>
-      </c>
-      <c r="AZ79">
-        <v>12</v>
-      </c>
-      <c r="BA79">
-        <v>2</v>
-      </c>
-      <c r="BB79">
-        <v>7</v>
-      </c>
       <c r="BC79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD79">
         <v>0</v>
@@ -17216,212 +17213,6 @@
         <v>0</v>
       </c>
       <c r="BP79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:68">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>7482750</v>
-      </c>
-      <c r="C80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="2">
-        <v>45619.54166666666</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I80">
-        <v>4</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>4</v>
-      </c>
-      <c r="L80">
-        <v>7</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>7</v>
-      </c>
-      <c r="O80" t="s">
-        <v>145</v>
-      </c>
-      <c r="P80" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q80">
-        <v>1.91</v>
-      </c>
-      <c r="R80">
-        <v>2.5</v>
-      </c>
-      <c r="S80">
-        <v>6.5</v>
-      </c>
-      <c r="T80">
-        <v>1.3</v>
-      </c>
-      <c r="U80">
-        <v>3.4</v>
-      </c>
-      <c r="V80">
-        <v>2.38</v>
-      </c>
-      <c r="W80">
-        <v>1.53</v>
-      </c>
-      <c r="X80">
-        <v>6</v>
-      </c>
-      <c r="Y80">
-        <v>1.13</v>
-      </c>
-      <c r="Z80">
-        <v>2</v>
-      </c>
-      <c r="AA80">
-        <v>2.28</v>
-      </c>
-      <c r="AB80">
-        <v>5.85</v>
-      </c>
-      <c r="AC80">
-        <v>1.02</v>
-      </c>
-      <c r="AD80">
-        <v>17</v>
-      </c>
-      <c r="AE80">
-        <v>1.18</v>
-      </c>
-      <c r="AF80">
-        <v>4.75</v>
-      </c>
-      <c r="AG80">
-        <v>1.57</v>
-      </c>
-      <c r="AH80">
-        <v>2.25</v>
-      </c>
-      <c r="AI80">
-        <v>1.8</v>
-      </c>
-      <c r="AJ80">
-        <v>1.95</v>
-      </c>
-      <c r="AK80">
-        <v>1.1</v>
-      </c>
-      <c r="AL80">
-        <v>1.14</v>
-      </c>
-      <c r="AM80">
-        <v>2.8</v>
-      </c>
-      <c r="AN80">
-        <v>2.29</v>
-      </c>
-      <c r="AO80">
-        <v>1.17</v>
-      </c>
-      <c r="AP80">
-        <v>2.38</v>
-      </c>
-      <c r="AQ80">
-        <v>1</v>
-      </c>
-      <c r="AR80">
-        <v>1.71</v>
-      </c>
-      <c r="AS80">
-        <v>1.08</v>
-      </c>
-      <c r="AT80">
-        <v>2.79</v>
-      </c>
-      <c r="AU80">
-        <v>13</v>
-      </c>
-      <c r="AV80">
-        <v>4</v>
-      </c>
-      <c r="AW80">
-        <v>4</v>
-      </c>
-      <c r="AX80">
-        <v>2</v>
-      </c>
-      <c r="AY80">
-        <v>19</v>
-      </c>
-      <c r="AZ80">
-        <v>10</v>
-      </c>
-      <c r="BA80">
-        <v>3</v>
-      </c>
-      <c r="BB80">
-        <v>1</v>
-      </c>
-      <c r="BC80">
-        <v>4</v>
-      </c>
-      <c r="BD80">
-        <v>0</v>
-      </c>
-      <c r="BE80">
-        <v>0</v>
-      </c>
-      <c r="BF80">
-        <v>0</v>
-      </c>
-      <c r="BG80">
-        <v>0</v>
-      </c>
-      <c r="BH80">
-        <v>0</v>
-      </c>
-      <c r="BI80">
-        <v>0</v>
-      </c>
-      <c r="BJ80">
-        <v>0</v>
-      </c>
-      <c r="BK80">
-        <v>0</v>
-      </c>
-      <c r="BL80">
-        <v>0</v>
-      </c>
-      <c r="BM80">
-        <v>0</v>
-      </c>
-      <c r="BN80">
-        <v>0</v>
-      </c>
-      <c r="BO80">
-        <v>0</v>
-      </c>
-      <c r="BP80">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,9 @@
     <t>['11', '23']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['30']</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
   </si>
   <si>
     <t>['90', '90+4']</t>
+  </si>
+  <si>
+    <t>['73', '88']</t>
   </si>
   <si>
     <t>['41', '48']</t>
@@ -936,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1201,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1401,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1607,7 +1613,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1688,7 +1694,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2431,7 +2437,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2843,7 +2849,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -2921,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.71</v>
@@ -3127,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3336,7 +3342,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3542,7 +3548,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3667,7 +3673,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3873,7 +3879,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4079,7 +4085,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4903,7 +4909,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5109,7 +5115,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5315,7 +5321,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5521,7 +5527,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5599,10 +5605,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5808,7 +5814,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6139,7 +6145,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6345,7 +6351,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6551,7 +6557,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6963,7 +6969,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7169,7 +7175,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3.6</v>
@@ -7250,7 +7256,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7456,7 +7462,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7581,7 +7587,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7787,7 +7793,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7993,7 +7999,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8074,7 +8080,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8199,7 +8205,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8611,7 +8617,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8817,7 +8823,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9023,7 +9029,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9101,7 +9107,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ40">
         <v>2.17</v>
@@ -9435,7 +9441,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9641,7 +9647,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9722,7 +9728,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
@@ -9925,7 +9931,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10259,7 +10265,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10465,7 +10471,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10671,7 +10677,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10752,7 +10758,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -10955,7 +10961,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11495,7 +11501,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11576,7 +11582,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -11907,7 +11913,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12191,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12319,7 +12325,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12525,7 +12531,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12731,7 +12737,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12812,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -12937,7 +12943,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13018,7 +13024,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13221,7 +13227,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ60">
         <v>0.86</v>
@@ -13555,7 +13561,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14048,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14173,7 +14179,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14379,7 +14385,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14460,7 +14466,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.79</v>
@@ -14663,7 +14669,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.75</v>
@@ -14791,7 +14797,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14872,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.38</v>
@@ -15409,7 +15415,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15487,7 +15493,7 @@
         <v>0.83</v>
       </c>
       <c r="AP71">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ71">
         <v>0.71</v>
@@ -15615,7 +15621,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16027,7 +16033,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16439,7 +16445,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16520,7 +16526,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16809,7 +16815,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7482751</v>
+        <v>7482747</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16818,25 +16824,25 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45619.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F78">
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -16851,124 +16857,124 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q78">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R78">
+        <v>2.4</v>
+      </c>
+      <c r="S78">
+        <v>4.75</v>
+      </c>
+      <c r="T78">
+        <v>1.3</v>
+      </c>
+      <c r="U78">
+        <v>3.4</v>
+      </c>
+      <c r="V78">
+        <v>2.38</v>
+      </c>
+      <c r="W78">
+        <v>1.53</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.13</v>
+      </c>
+      <c r="Z78">
+        <v>1.92</v>
+      </c>
+      <c r="AA78">
+        <v>2.82</v>
+      </c>
+      <c r="AB78">
+        <v>4.27</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>17</v>
+      </c>
+      <c r="AE78">
+        <v>1.2</v>
+      </c>
+      <c r="AF78">
+        <v>4.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.61</v>
+      </c>
+      <c r="AH78">
+        <v>2.15</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
         <v>2.2</v>
       </c>
-      <c r="S78">
-        <v>3.75</v>
-      </c>
-      <c r="T78">
-        <v>1.4</v>
-      </c>
-      <c r="U78">
-        <v>2.75</v>
-      </c>
-      <c r="V78">
-        <v>2.75</v>
-      </c>
-      <c r="W78">
-        <v>1.4</v>
-      </c>
-      <c r="X78">
-        <v>8</v>
-      </c>
-      <c r="Y78">
-        <v>1.08</v>
-      </c>
-      <c r="Z78">
-        <v>1.98</v>
-      </c>
-      <c r="AA78">
-        <v>3.5</v>
-      </c>
-      <c r="AB78">
-        <v>3.5</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
-      <c r="AG78">
-        <v>1.8</v>
-      </c>
-      <c r="AH78">
-        <v>1.88</v>
-      </c>
-      <c r="AI78">
-        <v>1.7</v>
-      </c>
-      <c r="AJ78">
-        <v>2.05</v>
-      </c>
       <c r="AK78">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AL78">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AM78">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>0.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="AS78">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
-        <v>2.39</v>
+        <v>3.45</v>
       </c>
       <c r="AU78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY78">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ78">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BA78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB78">
         <v>2</v>
       </c>
       <c r="BC78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17015,7 +17021,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7482748</v>
+        <v>7482752</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17024,16 +17030,16 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45620.4375</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F79">
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -17045,175 +17051,793 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="P79" t="s">
         <v>89</v>
       </c>
       <c r="Q79">
+        <v>5.5</v>
+      </c>
+      <c r="R79">
         <v>2.5</v>
       </c>
-      <c r="R79">
-        <v>2.2</v>
-      </c>
       <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>1.29</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>2.38</v>
+      </c>
+      <c r="W79">
+        <v>1.53</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.14</v>
+      </c>
+      <c r="Z79">
+        <v>5.97</v>
+      </c>
+      <c r="AA79">
+        <v>1.66</v>
+      </c>
+      <c r="AB79">
+        <v>2.95</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>17</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
         <v>4.5</v>
       </c>
-      <c r="T79">
-        <v>1.4</v>
-      </c>
-      <c r="U79">
-        <v>2.75</v>
-      </c>
-      <c r="V79">
-        <v>3</v>
-      </c>
-      <c r="W79">
-        <v>1.36</v>
-      </c>
-      <c r="X79">
-        <v>8</v>
-      </c>
-      <c r="Y79">
-        <v>1.08</v>
-      </c>
-      <c r="Z79">
-        <v>1.98</v>
-      </c>
-      <c r="AA79">
-        <v>3.4</v>
-      </c>
-      <c r="AB79">
-        <v>3.6</v>
-      </c>
-      <c r="AC79">
-        <v>1.91</v>
-      </c>
-      <c r="AD79">
-        <v>1.91</v>
-      </c>
-      <c r="AE79">
-        <v>2.6</v>
-      </c>
-      <c r="AF79">
-        <v>1.5</v>
-      </c>
       <c r="AG79">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AH79">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="AI79">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ79">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK79">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL79">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM79">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1.17</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
         <v>1.14</v>
       </c>
-      <c r="AO79">
-        <v>0.67</v>
-      </c>
-      <c r="AP79">
-        <v>1.38</v>
-      </c>
-      <c r="AQ79">
-        <v>0.57</v>
-      </c>
       <c r="AR79">
-        <v>1.54</v>
+        <v>0.96</v>
       </c>
       <c r="AS79">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="AT79">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="AU79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV79">
         <v>4</v>
       </c>
       <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>3</v>
+      </c>
+      <c r="AZ79">
+        <v>7</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7482751</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q80">
+        <v>2.88</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>3.75</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>2.75</v>
+      </c>
+      <c r="W80">
+        <v>1.4</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>1.98</v>
+      </c>
+      <c r="AA80">
+        <v>3.5</v>
+      </c>
+      <c r="AB80">
+        <v>3.5</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>1.8</v>
+      </c>
+      <c r="AH80">
+        <v>1.88</v>
+      </c>
+      <c r="AI80">
+        <v>1.7</v>
+      </c>
+      <c r="AJ80">
+        <v>2.05</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>0.43</v>
+      </c>
+      <c r="AP80">
+        <v>1.71</v>
+      </c>
+      <c r="AQ80">
+        <v>0.75</v>
+      </c>
+      <c r="AR80">
+        <v>1.31</v>
+      </c>
+      <c r="AS80">
+        <v>1.08</v>
+      </c>
+      <c r="AT80">
+        <v>2.39</v>
+      </c>
+      <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
+        <v>8</v>
+      </c>
+      <c r="AW80">
+        <v>7</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>16</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>8</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>10</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7482748</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45620.4375</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q81">
+        <v>2.5</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>4.5</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>1.36</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>1.98</v>
+      </c>
+      <c r="AA81">
+        <v>3.4</v>
+      </c>
+      <c r="AB81">
+        <v>3.6</v>
+      </c>
+      <c r="AC81">
+        <v>1.91</v>
+      </c>
+      <c r="AD81">
+        <v>1.91</v>
+      </c>
+      <c r="AE81">
+        <v>2.6</v>
+      </c>
+      <c r="AF81">
+        <v>1.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.9</v>
+      </c>
+      <c r="AH81">
+        <v>1.78</v>
+      </c>
+      <c r="AI81">
+        <v>1.8</v>
+      </c>
+      <c r="AJ81">
+        <v>1.95</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1.14</v>
+      </c>
+      <c r="AO81">
+        <v>0.67</v>
+      </c>
+      <c r="AP81">
+        <v>1.38</v>
+      </c>
+      <c r="AQ81">
+        <v>0.57</v>
+      </c>
+      <c r="AR81">
+        <v>1.54</v>
+      </c>
+      <c r="AS81">
+        <v>0.97</v>
+      </c>
+      <c r="AT81">
+        <v>2.51</v>
+      </c>
+      <c r="AU81">
+        <v>6</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
         <v>5</v>
       </c>
-      <c r="AX79">
-        <v>1</v>
-      </c>
-      <c r="AY79">
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
         <v>13</v>
       </c>
-      <c r="AZ79">
+      <c r="AZ81">
         <v>6</v>
       </c>
-      <c r="BA79">
-        <v>2</v>
-      </c>
-      <c r="BB79">
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
         <v>4</v>
       </c>
-      <c r="BC79">
+      <c r="BC81">
         <v>6</v>
       </c>
-      <c r="BD79">
-        <v>0</v>
-      </c>
-      <c r="BE79">
-        <v>0</v>
-      </c>
-      <c r="BF79">
-        <v>0</v>
-      </c>
-      <c r="BG79">
-        <v>0</v>
-      </c>
-      <c r="BH79">
-        <v>0</v>
-      </c>
-      <c r="BI79">
-        <v>0</v>
-      </c>
-      <c r="BJ79">
-        <v>0</v>
-      </c>
-      <c r="BK79">
-        <v>0</v>
-      </c>
-      <c r="BL79">
-        <v>0</v>
-      </c>
-      <c r="BM79">
-        <v>0</v>
-      </c>
-      <c r="BN79">
-        <v>0</v>
-      </c>
-      <c r="BO79">
-        <v>0</v>
-      </c>
-      <c r="BP79">
-        <v>0</v>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7482749</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45620.54166666666</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>87</v>
+      </c>
+      <c r="P82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q82">
+        <v>2.4</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>4.33</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.25</v>
+      </c>
+      <c r="V82">
+        <v>2.5</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.89</v>
+      </c>
+      <c r="AA82">
+        <v>3.39</v>
+      </c>
+      <c r="AB82">
+        <v>3.62</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>5.82</v>
+      </c>
+      <c r="AF82">
+        <v>1.14</v>
+      </c>
+      <c r="AG82">
+        <v>1.71</v>
+      </c>
+      <c r="AH82">
+        <v>2</v>
+      </c>
+      <c r="AI82">
+        <v>1.62</v>
+      </c>
+      <c r="AJ82">
+        <v>2.2</v>
+      </c>
+      <c r="AK82">
+        <v>1.3</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.85</v>
+      </c>
+      <c r="AN82">
+        <v>2.67</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>2.71</v>
+      </c>
+      <c r="AQ82">
+        <v>0.83</v>
+      </c>
+      <c r="AR82">
+        <v>1.76</v>
+      </c>
+      <c r="AS82">
+        <v>1.2</v>
+      </c>
+      <c r="AT82">
+        <v>2.96</v>
+      </c>
+      <c r="AU82">
+        <v>6</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>7</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>2</v>
+      </c>
+      <c r="BC82">
+        <v>8</v>
+      </c>
+      <c r="BD82">
+        <v>1.38</v>
+      </c>
+      <c r="BE82">
+        <v>6.8</v>
+      </c>
+      <c r="BF82">
+        <v>3.9</v>
+      </c>
+      <c r="BG82">
+        <v>1.18</v>
+      </c>
+      <c r="BH82">
+        <v>4.2</v>
+      </c>
+      <c r="BI82">
+        <v>1.35</v>
+      </c>
+      <c r="BJ82">
+        <v>2.9</v>
+      </c>
+      <c r="BK82">
+        <v>1.65</v>
+      </c>
+      <c r="BL82">
+        <v>2.08</v>
+      </c>
+      <c r="BM82">
+        <v>2.12</v>
+      </c>
+      <c r="BN82">
+        <v>1.62</v>
+      </c>
+      <c r="BO82">
+        <v>2.9</v>
+      </c>
+      <c r="BP82">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['8', '32', '38', '40', '55', '65', '90+1']</t>
   </si>
   <si>
     <t>['30']</t>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1407,7 +1410,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1613,7 +1616,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1900,7 +1903,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2437,7 +2440,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2849,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3339,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -3673,7 +3676,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3879,7 +3882,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4085,7 +4088,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4909,7 +4912,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -4990,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5115,7 +5118,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5193,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ21">
         <v>0.57</v>
@@ -5321,7 +5324,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5527,7 +5530,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6145,7 +6148,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6351,7 +6354,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6429,7 +6432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -6557,7 +6560,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6969,7 +6972,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7175,7 +7178,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>3.6</v>
@@ -7587,7 +7590,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7793,7 +7796,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7999,7 +8002,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8205,7 +8208,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8617,7 +8620,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8695,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8823,7 +8826,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9029,7 +9032,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9441,7 +9444,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9647,7 +9650,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10265,7 +10268,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10471,7 +10474,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10552,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10677,7 +10680,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11376,7 +11379,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11501,7 +11504,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11785,7 +11788,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -11913,7 +11916,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12325,7 +12328,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12403,7 +12406,7 @@
         <v>0.4</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -12531,7 +12534,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12737,7 +12740,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12943,7 +12946,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13436,7 +13439,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13561,7 +13564,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14179,7 +14182,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14385,7 +14388,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14463,7 +14466,7 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -14797,7 +14800,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15415,7 +15418,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15621,7 +15624,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16033,7 +16036,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16445,7 +16448,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16732,7 +16735,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -16857,7 +16860,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17227,7 +17230,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7482751</v>
+        <v>7482750</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17236,157 +17239,157 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45619.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F80">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O80" t="s">
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="Q80">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="R80">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S80">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="T80">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U80">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V80">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W80">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y80">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z80">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA80">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="AB80">
-        <v>3.5</v>
+        <v>5.85</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AG80">
+        <v>1.57</v>
+      </c>
+      <c r="AH80">
+        <v>2.25</v>
+      </c>
+      <c r="AI80">
         <v>1.8</v>
       </c>
-      <c r="AH80">
-        <v>1.88</v>
-      </c>
-      <c r="AI80">
-        <v>1.7</v>
-      </c>
       <c r="AJ80">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK80">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AL80">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AM80">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AO80">
-        <v>0.43</v>
+        <v>1.17</v>
       </c>
       <c r="AP80">
+        <v>2.38</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
         <v>1.71</v>
-      </c>
-      <c r="AQ80">
-        <v>0.75</v>
-      </c>
-      <c r="AR80">
-        <v>1.31</v>
       </c>
       <c r="AS80">
         <v>1.08</v>
       </c>
       <c r="AT80">
-        <v>2.39</v>
+        <v>2.79</v>
       </c>
       <c r="AU80">
+        <v>-1</v>
+      </c>
+      <c r="AV80">
+        <v>-1</v>
+      </c>
+      <c r="AW80">
+        <v>-1</v>
+      </c>
+      <c r="AX80">
+        <v>-1</v>
+      </c>
+      <c r="AY80">
+        <v>-1</v>
+      </c>
+      <c r="AZ80">
+        <v>-1</v>
+      </c>
+      <c r="BA80">
         <v>3</v>
       </c>
-      <c r="AV80">
-        <v>8</v>
-      </c>
-      <c r="AW80">
-        <v>7</v>
-      </c>
-      <c r="AX80">
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
         <v>4</v>
-      </c>
-      <c r="AY80">
-        <v>16</v>
-      </c>
-      <c r="AZ80">
-        <v>12</v>
-      </c>
-      <c r="BA80">
-        <v>8</v>
-      </c>
-      <c r="BB80">
-        <v>2</v>
-      </c>
-      <c r="BC80">
-        <v>10</v>
       </c>
       <c r="BD80">
         <v>0</v>
@@ -17433,7 +17436,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7482748</v>
+        <v>7482751</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17442,49 +17445,49 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45620.4375</v>
+        <v>45619.875</v>
       </c>
       <c r="F81">
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O81" t="s">
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="Q81">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R81">
         <v>2.2</v>
       </c>
       <c r="S81">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T81">
         <v>1.4</v>
@@ -17493,10 +17496,10 @@
         <v>2.75</v>
       </c>
       <c r="V81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W81">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X81">
         <v>8</v>
@@ -17508,34 +17511,34 @@
         <v>1.98</v>
       </c>
       <c r="AA81">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AC81">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AD81">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE81">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AF81">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH81">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AI81">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ81">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK81">
         <v>0</v>
@@ -17547,52 +17550,52 @@
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AS81">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
-        <v>2.51</v>
+        <v>2.39</v>
       </c>
       <c r="AU81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV81">
+        <v>8</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
         <v>4</v>
       </c>
-      <c r="AW81">
-        <v>5</v>
-      </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
       <c r="AY81">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA81">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC81">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD81">
         <v>0</v>
@@ -17639,7 +17642,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7482749</v>
+        <v>7482748</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17648,16 +17651,16 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45620.54166666666</v>
+        <v>45620.4375</v>
       </c>
       <c r="F82">
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17669,109 +17672,109 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="P82" t="s">
         <v>89</v>
       </c>
       <c r="Q82">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R82">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S82">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T82">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V82">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>1.98</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>3.6</v>
+      </c>
+      <c r="AC82">
+        <v>1.91</v>
+      </c>
+      <c r="AD82">
+        <v>1.91</v>
+      </c>
+      <c r="AE82">
+        <v>2.6</v>
+      </c>
+      <c r="AF82">
         <v>1.5</v>
       </c>
-      <c r="X82">
-        <v>6.5</v>
-      </c>
-      <c r="Y82">
-        <v>1.11</v>
-      </c>
-      <c r="Z82">
-        <v>1.89</v>
-      </c>
-      <c r="AA82">
-        <v>3.39</v>
-      </c>
-      <c r="AB82">
-        <v>3.62</v>
-      </c>
-      <c r="AC82">
-        <v>1.03</v>
-      </c>
-      <c r="AD82">
-        <v>13</v>
-      </c>
-      <c r="AE82">
-        <v>5.82</v>
-      </c>
-      <c r="AF82">
+      <c r="AG82">
+        <v>1.9</v>
+      </c>
+      <c r="AH82">
+        <v>1.78</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
         <v>1.14</v>
       </c>
-      <c r="AG82">
-        <v>1.71</v>
-      </c>
-      <c r="AH82">
-        <v>2</v>
-      </c>
-      <c r="AI82">
-        <v>1.62</v>
-      </c>
-      <c r="AJ82">
-        <v>2.2</v>
-      </c>
-      <c r="AK82">
-        <v>1.3</v>
-      </c>
-      <c r="AL82">
-        <v>1.22</v>
-      </c>
-      <c r="AM82">
-        <v>1.85</v>
-      </c>
-      <c r="AN82">
-        <v>2.67</v>
-      </c>
       <c r="AO82">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>2.71</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AR82">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>0.97</v>
       </c>
       <c r="AT82">
-        <v>2.96</v>
+        <v>2.51</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -17780,63 +17783,269 @@
         <v>4</v>
       </c>
       <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>1</v>
+      </c>
+      <c r="AY82">
+        <v>13</v>
+      </c>
+      <c r="AZ82">
+        <v>6</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>6</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7482749</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45620.54166666666</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>87</v>
+      </c>
+      <c r="P83" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q83">
+        <v>2.4</v>
+      </c>
+      <c r="R83">
+        <v>2.3</v>
+      </c>
+      <c r="S83">
+        <v>4.33</v>
+      </c>
+      <c r="T83">
+        <v>1.33</v>
+      </c>
+      <c r="U83">
+        <v>3.25</v>
+      </c>
+      <c r="V83">
+        <v>2.5</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>6.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.11</v>
+      </c>
+      <c r="Z83">
+        <v>1.89</v>
+      </c>
+      <c r="AA83">
+        <v>3.39</v>
+      </c>
+      <c r="AB83">
+        <v>3.62</v>
+      </c>
+      <c r="AC83">
+        <v>1.03</v>
+      </c>
+      <c r="AD83">
+        <v>13</v>
+      </c>
+      <c r="AE83">
+        <v>5.82</v>
+      </c>
+      <c r="AF83">
+        <v>1.14</v>
+      </c>
+      <c r="AG83">
+        <v>1.71</v>
+      </c>
+      <c r="AH83">
+        <v>2</v>
+      </c>
+      <c r="AI83">
+        <v>1.62</v>
+      </c>
+      <c r="AJ83">
+        <v>2.2</v>
+      </c>
+      <c r="AK83">
+        <v>1.3</v>
+      </c>
+      <c r="AL83">
+        <v>1.22</v>
+      </c>
+      <c r="AM83">
+        <v>1.85</v>
+      </c>
+      <c r="AN83">
+        <v>2.67</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>2.71</v>
+      </c>
+      <c r="AQ83">
+        <v>0.83</v>
+      </c>
+      <c r="AR83">
+        <v>1.76</v>
+      </c>
+      <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
+        <v>2.96</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
         <v>3</v>
       </c>
-      <c r="AX82">
+      <c r="AX83">
         <v>3</v>
       </c>
-      <c r="AY82">
+      <c r="AY83">
         <v>11</v>
       </c>
-      <c r="AZ82">
+      <c r="AZ83">
         <v>7</v>
       </c>
-      <c r="BA82">
+      <c r="BA83">
         <v>6</v>
       </c>
-      <c r="BB82">
-        <v>2</v>
-      </c>
-      <c r="BC82">
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
         <v>8</v>
       </c>
-      <c r="BD82">
+      <c r="BD83">
         <v>1.38</v>
       </c>
-      <c r="BE82">
+      <c r="BE83">
         <v>6.8</v>
       </c>
-      <c r="BF82">
+      <c r="BF83">
         <v>3.9</v>
       </c>
-      <c r="BG82">
+      <c r="BG83">
         <v>1.18</v>
       </c>
-      <c r="BH82">
+      <c r="BH83">
         <v>4.2</v>
       </c>
-      <c r="BI82">
+      <c r="BI83">
         <v>1.35</v>
       </c>
-      <c r="BJ82">
+      <c r="BJ83">
         <v>2.9</v>
       </c>
-      <c r="BK82">
+      <c r="BK83">
         <v>1.65</v>
       </c>
-      <c r="BL82">
+      <c r="BL83">
         <v>2.08</v>
       </c>
-      <c r="BM82">
+      <c r="BM83">
         <v>2.12</v>
       </c>
-      <c r="BN82">
+      <c r="BN83">
         <v>1.62</v>
       </c>
-      <c r="BO82">
+      <c r="BO83">
         <v>2.9</v>
       </c>
-      <c r="BP82">
+      <c r="BP83">
         <v>1.35</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -17445,7 +17445,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45619.875</v>
+        <v>45620.4375</v>
       </c>
       <c r="F81">
         <v>14</v>
@@ -17571,22 +17571,22 @@
         <v>2.39</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW81">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX81">
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA81">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,12 @@
     <t>['77', '86']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['8', '11', '36']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -584,6 +590,12 @@
   </si>
   <si>
     <t>['41', '48']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['80', '83', '90+2', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1216,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1282,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1410,7 +1422,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1488,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -1616,7 +1628,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1694,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.86</v>
@@ -2109,7 +2121,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ6">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2440,7 +2452,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2852,7 +2864,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3139,7 +3151,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3676,7 +3688,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3757,7 +3769,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0.52</v>
@@ -3882,7 +3894,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -3960,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4088,7 +4100,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4169,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>1.73</v>
@@ -4578,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4784,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -4912,7 +4924,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5118,7 +5130,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5324,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5530,7 +5542,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6020,7 +6032,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6148,7 +6160,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6354,7 +6366,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6560,7 +6572,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6641,7 +6653,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6844,7 +6856,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>1.14</v>
@@ -6972,7 +6984,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7053,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.52</v>
@@ -7590,7 +7602,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7668,7 +7680,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -7796,7 +7808,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8002,7 +8014,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8208,7 +8220,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8286,7 +8298,7 @@
         <v>0.33</v>
       </c>
       <c r="AP36">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -8495,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1</v>
@@ -8620,7 +8632,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8701,7 +8713,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8826,7 +8838,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9032,7 +9044,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9113,7 +9125,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ40">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9316,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0.86</v>
@@ -9444,7 +9456,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9525,7 +9537,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -9650,7 +9662,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10140,7 +10152,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>0.57</v>
@@ -10268,7 +10280,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10474,7 +10486,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10552,7 +10564,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10680,7 +10692,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11504,7 +11516,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11582,7 +11594,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
         <v>1.14</v>
@@ -11791,7 +11803,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.83</v>
@@ -11916,7 +11928,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11997,7 +12009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.29</v>
@@ -12328,7 +12340,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12534,7 +12546,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12740,7 +12752,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12946,7 +12958,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13436,7 +13448,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13564,7 +13576,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13642,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.71</v>
@@ -13851,7 +13863,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>1.65</v>
@@ -14054,7 +14066,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64">
         <v>1.14</v>
@@ -14182,7 +14194,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14263,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14388,7 +14400,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14800,7 +14812,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15293,7 +15305,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15624,7 +15636,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15908,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73">
         <v>0.86</v>
@@ -16036,7 +16048,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16114,10 +16126,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16323,7 +16335,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -16448,7 +16460,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16526,7 +16538,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ76">
         <v>1.86</v>
@@ -16860,7 +16872,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17478,7 +17490,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18047,6 +18059,624 @@
       </c>
       <c r="BP83">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7482758</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>120</v>
+      </c>
+      <c r="P84" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q84">
+        <v>4.75</v>
+      </c>
+      <c r="R84">
+        <v>2.38</v>
+      </c>
+      <c r="S84">
+        <v>2.25</v>
+      </c>
+      <c r="T84">
+        <v>1.33</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>2.5</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.13</v>
+      </c>
+      <c r="Z84">
+        <v>3.85</v>
+      </c>
+      <c r="AA84">
+        <v>3.95</v>
+      </c>
+      <c r="AB84">
+        <v>1.77</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>17</v>
+      </c>
+      <c r="AE84">
+        <v>1.2</v>
+      </c>
+      <c r="AF84">
+        <v>4.33</v>
+      </c>
+      <c r="AG84">
+        <v>1.8</v>
+      </c>
+      <c r="AH84">
+        <v>1.88</v>
+      </c>
+      <c r="AI84">
+        <v>1.7</v>
+      </c>
+      <c r="AJ84">
+        <v>2.05</v>
+      </c>
+      <c r="AK84">
+        <v>2.2</v>
+      </c>
+      <c r="AL84">
+        <v>1.18</v>
+      </c>
+      <c r="AM84">
+        <v>1.2</v>
+      </c>
+      <c r="AN84">
+        <v>1.57</v>
+      </c>
+      <c r="AO84">
+        <v>1.14</v>
+      </c>
+      <c r="AP84">
+        <v>1.5</v>
+      </c>
+      <c r="AQ84">
+        <v>1.13</v>
+      </c>
+      <c r="AR84">
+        <v>1.2</v>
+      </c>
+      <c r="AS84">
+        <v>1.37</v>
+      </c>
+      <c r="AT84">
+        <v>2.57</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>1</v>
+      </c>
+      <c r="AX84">
+        <v>11</v>
+      </c>
+      <c r="AY84">
+        <v>3</v>
+      </c>
+      <c r="AZ84">
+        <v>26</v>
+      </c>
+      <c r="BA84">
+        <v>1</v>
+      </c>
+      <c r="BB84">
+        <v>9</v>
+      </c>
+      <c r="BC84">
+        <v>10</v>
+      </c>
+      <c r="BD84">
+        <v>2.9</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>1.59</v>
+      </c>
+      <c r="BG84">
+        <v>1.31</v>
+      </c>
+      <c r="BH84">
+        <v>3.15</v>
+      </c>
+      <c r="BI84">
+        <v>1.55</v>
+      </c>
+      <c r="BJ84">
+        <v>2.29</v>
+      </c>
+      <c r="BK84">
+        <v>1.98</v>
+      </c>
+      <c r="BL84">
+        <v>1.82</v>
+      </c>
+      <c r="BM84">
+        <v>2.47</v>
+      </c>
+      <c r="BN84">
+        <v>1.48</v>
+      </c>
+      <c r="BO84">
+        <v>3.3</v>
+      </c>
+      <c r="BP84">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7482756</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>148</v>
+      </c>
+      <c r="P85" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q85">
+        <v>5.5</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>2.2</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>5</v>
+      </c>
+      <c r="AA85">
+        <v>4.05</v>
+      </c>
+      <c r="AB85">
+        <v>1.58</v>
+      </c>
+      <c r="AC85">
+        <v>1.04</v>
+      </c>
+      <c r="AD85">
+        <v>12</v>
+      </c>
+      <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>3.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.89</v>
+      </c>
+      <c r="AH85">
+        <v>1.99</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.95</v>
+      </c>
+      <c r="AK85">
+        <v>2.3</v>
+      </c>
+      <c r="AL85">
+        <v>1.2</v>
+      </c>
+      <c r="AM85">
+        <v>1.16</v>
+      </c>
+      <c r="AN85">
+        <v>0.71</v>
+      </c>
+      <c r="AO85">
+        <v>2.17</v>
+      </c>
+      <c r="AP85">
+        <v>0.75</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>1.26</v>
+      </c>
+      <c r="AS85">
+        <v>1.3</v>
+      </c>
+      <c r="AT85">
+        <v>2.56</v>
+      </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>18</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>7</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>2.78</v>
+      </c>
+      <c r="BE85">
+        <v>8.5</v>
+      </c>
+      <c r="BF85">
+        <v>1.59</v>
+      </c>
+      <c r="BG85">
+        <v>1.27</v>
+      </c>
+      <c r="BH85">
+        <v>3.38</v>
+      </c>
+      <c r="BI85">
+        <v>1.49</v>
+      </c>
+      <c r="BJ85">
+        <v>2.44</v>
+      </c>
+      <c r="BK85">
+        <v>1.82</v>
+      </c>
+      <c r="BL85">
+        <v>1.98</v>
+      </c>
+      <c r="BM85">
+        <v>2.32</v>
+      </c>
+      <c r="BN85">
+        <v>1.54</v>
+      </c>
+      <c r="BO85">
+        <v>3.05</v>
+      </c>
+      <c r="BP85">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7482757</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>7</v>
+      </c>
+      <c r="O86" t="s">
+        <v>149</v>
+      </c>
+      <c r="P86" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86">
+        <v>3.4</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>3.1</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>2.65</v>
+      </c>
+      <c r="AA86">
+        <v>3.35</v>
+      </c>
+      <c r="AB86">
+        <v>2.49</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.3</v>
+      </c>
+      <c r="AF86">
+        <v>3.5</v>
+      </c>
+      <c r="AG86">
+        <v>2.01</v>
+      </c>
+      <c r="AH86">
+        <v>1.87</v>
+      </c>
+      <c r="AI86">
+        <v>1.67</v>
+      </c>
+      <c r="AJ86">
+        <v>2.1</v>
+      </c>
+      <c r="AK86">
+        <v>1.52</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.47</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1.5</v>
+      </c>
+      <c r="AP86">
+        <v>0.86</v>
+      </c>
+      <c r="AQ86">
+        <v>1.71</v>
+      </c>
+      <c r="AR86">
+        <v>1.46</v>
+      </c>
+      <c r="AS86">
+        <v>1.38</v>
+      </c>
+      <c r="AT86">
+        <v>2.84</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>8</v>
+      </c>
+      <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>9</v>
+      </c>
+      <c r="AY86">
+        <v>12</v>
+      </c>
+      <c r="AZ86">
+        <v>26</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>11</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>1.91</v>
+      </c>
+      <c r="BE86">
+        <v>8</v>
+      </c>
+      <c r="BF86">
+        <v>2.2</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.58</v>
+      </c>
+      <c r="BI86">
+        <v>1.45</v>
+      </c>
+      <c r="BJ86">
+        <v>2.55</v>
+      </c>
+      <c r="BK86">
+        <v>1.75</v>
+      </c>
+      <c r="BL86">
+        <v>1.96</v>
+      </c>
+      <c r="BM86">
+        <v>2.21</v>
+      </c>
+      <c r="BN86">
+        <v>1.59</v>
+      </c>
+      <c r="BO86">
+        <v>2.9</v>
+      </c>
+      <c r="BP86">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,10 +460,13 @@
     <t>['77', '86']</t>
   </si>
   <si>
+    <t>['8', '11', '36']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
-    <t>['8', '11', '36']</t>
+    <t>['72']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -592,10 +595,16 @@
     <t>['41', '48']</t>
   </si>
   <si>
+    <t>['80', '83', '90+2', '90+8']</t>
+  </si>
+  <si>
     <t>['44']</t>
   </si>
   <si>
-    <t>['80', '83', '90+2', '90+8']</t>
+    <t>['7', '87', '90+4']</t>
+  </si>
+  <si>
+    <t>['20', '48', '78']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1225,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1422,7 +1431,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1503,7 +1512,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1628,7 +1637,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2327,7 +2336,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2452,7 +2461,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2530,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -2864,7 +2873,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -2945,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3560,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>1.14</v>
@@ -3688,7 +3697,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3766,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3894,7 +3903,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -3975,7 +3984,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.07</v>
@@ -4100,7 +4109,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4178,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4384,10 +4393,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>1.7</v>
@@ -4799,7 +4808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -4924,7 +4933,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5130,7 +5139,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5336,7 +5345,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5542,7 +5551,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6160,7 +6169,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6238,10 +6247,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0.84</v>
@@ -6366,7 +6375,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6447,7 +6456,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -6572,7 +6581,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6650,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -6859,7 +6868,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR29">
         <v>1.18</v>
@@ -6984,7 +6993,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7062,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
         <v>1.71</v>
@@ -7602,7 +7611,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7808,7 +7817,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7886,7 +7895,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -8014,7 +8023,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8092,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8220,7 +8229,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8301,7 +8310,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.26</v>
@@ -8632,7 +8641,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8838,7 +8847,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8916,10 +8925,10 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9044,7 +9053,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9331,7 +9340,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.23</v>
@@ -9456,7 +9465,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9662,7 +9671,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9740,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ43">
         <v>1.86</v>
@@ -9949,7 +9958,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>2.5</v>
@@ -10280,7 +10289,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10361,7 +10370,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.79</v>
@@ -10486,7 +10495,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10692,7 +10701,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11185,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>0.98</v>
@@ -11388,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11516,7 +11525,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11928,7 +11937,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12340,7 +12349,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12546,7 +12555,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12624,10 +12633,10 @@
         <v>0.4</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -12752,7 +12761,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12958,7 +12967,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13036,7 +13045,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ59">
         <v>0.83</v>
@@ -13245,7 +13254,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13576,7 +13585,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13657,7 +13666,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.17</v>
@@ -14194,7 +14203,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14272,7 +14281,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
         <v>2</v>
@@ -14400,7 +14409,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14812,7 +14821,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14890,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
         <v>0.83</v>
@@ -15302,7 +15311,7 @@
         <v>1.8</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
         <v>1.71</v>
@@ -15511,7 +15520,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ71">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.72</v>
@@ -15636,7 +15645,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15717,7 +15726,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -15923,7 +15932,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16048,7 +16057,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16460,7 +16469,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16744,7 +16753,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16872,7 +16881,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17490,7 +17499,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18066,7 +18075,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7482758</v>
+        <v>7482757</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18075,196 +18084,196 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45626.54166666666</v>
+        <v>45625.875</v>
       </c>
       <c r="F84">
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O84" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q84">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R84">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S84">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="T84">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U84">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>2.65</v>
+      </c>
+      <c r="AA84">
+        <v>3.35</v>
+      </c>
+      <c r="AB84">
+        <v>2.49</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>11</v>
+      </c>
+      <c r="AE84">
+        <v>1.3</v>
+      </c>
+      <c r="AF84">
+        <v>3.5</v>
+      </c>
+      <c r="AG84">
+        <v>2.01</v>
+      </c>
+      <c r="AH84">
+        <v>1.87</v>
+      </c>
+      <c r="AI84">
+        <v>1.67</v>
+      </c>
+      <c r="AJ84">
+        <v>2.1</v>
+      </c>
+      <c r="AK84">
+        <v>1.52</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.47</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>1.5</v>
       </c>
-      <c r="X84">
-        <v>6</v>
-      </c>
-      <c r="Y84">
-        <v>1.13</v>
-      </c>
-      <c r="Z84">
-        <v>3.85</v>
-      </c>
-      <c r="AA84">
-        <v>3.95</v>
-      </c>
-      <c r="AB84">
-        <v>1.77</v>
-      </c>
-      <c r="AC84">
-        <v>1.02</v>
-      </c>
-      <c r="AD84">
-        <v>17</v>
-      </c>
-      <c r="AE84">
-        <v>1.2</v>
-      </c>
-      <c r="AF84">
-        <v>4.33</v>
-      </c>
-      <c r="AG84">
-        <v>1.8</v>
-      </c>
-      <c r="AH84">
-        <v>1.88</v>
-      </c>
-      <c r="AI84">
-        <v>1.7</v>
-      </c>
-      <c r="AJ84">
-        <v>2.05</v>
-      </c>
-      <c r="AK84">
-        <v>2.2</v>
-      </c>
-      <c r="AL84">
-        <v>1.18</v>
-      </c>
-      <c r="AM84">
-        <v>1.2</v>
-      </c>
-      <c r="AN84">
-        <v>1.57</v>
-      </c>
-      <c r="AO84">
-        <v>1.14</v>
-      </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="AS84">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="AU84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY84">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ84">
         <v>26</v>
       </c>
       <c r="BA84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC84">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD84">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="BE84">
         <v>8</v>
       </c>
       <c r="BF84">
+        <v>2.2</v>
+      </c>
+      <c r="BG84">
+        <v>1.25</v>
+      </c>
+      <c r="BH84">
+        <v>3.58</v>
+      </c>
+      <c r="BI84">
+        <v>1.45</v>
+      </c>
+      <c r="BJ84">
+        <v>2.55</v>
+      </c>
+      <c r="BK84">
+        <v>1.75</v>
+      </c>
+      <c r="BL84">
+        <v>1.96</v>
+      </c>
+      <c r="BM84">
+        <v>2.21</v>
+      </c>
+      <c r="BN84">
         <v>1.59</v>
       </c>
-      <c r="BG84">
-        <v>1.31</v>
-      </c>
-      <c r="BH84">
-        <v>3.15</v>
-      </c>
-      <c r="BI84">
-        <v>1.55</v>
-      </c>
-      <c r="BJ84">
-        <v>2.29</v>
-      </c>
-      <c r="BK84">
-        <v>1.98</v>
-      </c>
-      <c r="BL84">
-        <v>1.82</v>
-      </c>
-      <c r="BM84">
-        <v>2.47</v>
-      </c>
-      <c r="BN84">
-        <v>1.48</v>
-      </c>
       <c r="BO84">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP84">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18272,7 +18281,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7482756</v>
+        <v>7482758</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18287,10 +18296,10 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -18311,166 +18320,166 @@
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q85">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="R85">
+        <v>2.38</v>
+      </c>
+      <c r="S85">
         <v>2.25</v>
       </c>
-      <c r="S85">
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.5</v>
+      </c>
+      <c r="W85">
+        <v>1.5</v>
+      </c>
+      <c r="X85">
+        <v>6</v>
+      </c>
+      <c r="Y85">
+        <v>1.13</v>
+      </c>
+      <c r="Z85">
+        <v>3.85</v>
+      </c>
+      <c r="AA85">
+        <v>3.95</v>
+      </c>
+      <c r="AB85">
+        <v>1.77</v>
+      </c>
+      <c r="AC85">
+        <v>1.02</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4.33</v>
+      </c>
+      <c r="AG85">
+        <v>1.8</v>
+      </c>
+      <c r="AH85">
+        <v>1.88</v>
+      </c>
+      <c r="AI85">
+        <v>1.7</v>
+      </c>
+      <c r="AJ85">
+        <v>2.05</v>
+      </c>
+      <c r="AK85">
         <v>2.2</v>
       </c>
-      <c r="T85">
-        <v>1.36</v>
-      </c>
-      <c r="U85">
-        <v>3</v>
-      </c>
-      <c r="V85">
-        <v>2.63</v>
-      </c>
-      <c r="W85">
-        <v>1.44</v>
-      </c>
-      <c r="X85">
-        <v>7</v>
-      </c>
-      <c r="Y85">
-        <v>1.1</v>
-      </c>
-      <c r="Z85">
-        <v>5</v>
-      </c>
-      <c r="AA85">
-        <v>4.05</v>
-      </c>
-      <c r="AB85">
-        <v>1.58</v>
-      </c>
-      <c r="AC85">
-        <v>1.04</v>
-      </c>
-      <c r="AD85">
-        <v>12</v>
-      </c>
-      <c r="AE85">
-        <v>1.28</v>
-      </c>
-      <c r="AF85">
-        <v>3.75</v>
-      </c>
-      <c r="AG85">
-        <v>1.89</v>
-      </c>
-      <c r="AH85">
-        <v>1.99</v>
-      </c>
-      <c r="AI85">
-        <v>1.8</v>
-      </c>
-      <c r="AJ85">
-        <v>1.95</v>
-      </c>
-      <c r="AK85">
-        <v>2.3</v>
-      </c>
       <c r="AL85">
+        <v>1.18</v>
+      </c>
+      <c r="AM85">
         <v>1.2</v>
       </c>
-      <c r="AM85">
-        <v>1.16</v>
-      </c>
       <c r="AN85">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO85">
-        <v>2.17</v>
+        <v>1.14</v>
       </c>
       <c r="AP85">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AT85">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV85">
         <v>7</v>
       </c>
       <c r="AW85">
+        <v>1</v>
+      </c>
+      <c r="AX85">
+        <v>11</v>
+      </c>
+      <c r="AY85">
         <v>3</v>
       </c>
-      <c r="AX85">
-        <v>7</v>
-      </c>
-      <c r="AY85">
+      <c r="AZ85">
+        <v>26</v>
+      </c>
+      <c r="BA85">
+        <v>1</v>
+      </c>
+      <c r="BB85">
+        <v>9</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>2.9</v>
+      </c>
+      <c r="BE85">
         <v>8</v>
-      </c>
-      <c r="AZ85">
-        <v>18</v>
-      </c>
-      <c r="BA85">
-        <v>2</v>
-      </c>
-      <c r="BB85">
-        <v>7</v>
-      </c>
-      <c r="BC85">
-        <v>9</v>
-      </c>
-      <c r="BD85">
-        <v>2.78</v>
-      </c>
-      <c r="BE85">
-        <v>8.5</v>
       </c>
       <c r="BF85">
         <v>1.59</v>
       </c>
       <c r="BG85">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BH85">
-        <v>3.38</v>
+        <v>3.15</v>
       </c>
       <c r="BI85">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BJ85">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="BK85">
+        <v>1.98</v>
+      </c>
+      <c r="BL85">
         <v>1.82</v>
       </c>
-      <c r="BL85">
-        <v>1.98</v>
-      </c>
       <c r="BM85">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="BN85">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="BO85">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BP85">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18478,7 +18487,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7482757</v>
+        <v>7482756</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18493,190 +18502,808 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q86">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
         <v>2.2</v>
       </c>
-      <c r="S86">
-        <v>3.1</v>
-      </c>
       <c r="T86">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y86">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z86">
-        <v>2.65</v>
+        <v>5</v>
       </c>
       <c r="AA86">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="AB86">
-        <v>2.49</v>
+        <v>1.58</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD86">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE86">
+        <v>1.28</v>
+      </c>
+      <c r="AF86">
+        <v>3.75</v>
+      </c>
+      <c r="AG86">
+        <v>1.89</v>
+      </c>
+      <c r="AH86">
+        <v>1.99</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.95</v>
+      </c>
+      <c r="AK86">
+        <v>2.3</v>
+      </c>
+      <c r="AL86">
+        <v>1.2</v>
+      </c>
+      <c r="AM86">
+        <v>1.16</v>
+      </c>
+      <c r="AN86">
+        <v>0.71</v>
+      </c>
+      <c r="AO86">
+        <v>2.17</v>
+      </c>
+      <c r="AP86">
+        <v>0.75</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>1.26</v>
+      </c>
+      <c r="AS86">
         <v>1.3</v>
       </c>
-      <c r="AF86">
-        <v>3.5</v>
-      </c>
-      <c r="AG86">
-        <v>2.01</v>
-      </c>
-      <c r="AH86">
-        <v>1.87</v>
-      </c>
-      <c r="AI86">
-        <v>1.67</v>
-      </c>
-      <c r="AJ86">
-        <v>2.1</v>
-      </c>
-      <c r="AK86">
-        <v>1.52</v>
-      </c>
-      <c r="AL86">
-        <v>1.25</v>
-      </c>
-      <c r="AM86">
-        <v>1.47</v>
-      </c>
-      <c r="AN86">
-        <v>1</v>
-      </c>
-      <c r="AO86">
-        <v>1.5</v>
-      </c>
-      <c r="AP86">
-        <v>0.86</v>
-      </c>
-      <c r="AQ86">
-        <v>1.71</v>
-      </c>
-      <c r="AR86">
-        <v>1.46</v>
-      </c>
-      <c r="AS86">
-        <v>1.38</v>
-      </c>
       <c r="AT86">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
         <v>7</v>
-      </c>
-      <c r="AV86">
-        <v>8</v>
       </c>
       <c r="AW86">
         <v>3</v>
       </c>
       <c r="AX86">
+        <v>7</v>
+      </c>
+      <c r="AY86">
+        <v>8</v>
+      </c>
+      <c r="AZ86">
+        <v>18</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>7</v>
+      </c>
+      <c r="BC86">
         <v>9</v>
       </c>
-      <c r="AY86">
+      <c r="BD86">
+        <v>2.78</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>1.59</v>
+      </c>
+      <c r="BG86">
+        <v>1.27</v>
+      </c>
+      <c r="BH86">
+        <v>3.38</v>
+      </c>
+      <c r="BI86">
+        <v>1.49</v>
+      </c>
+      <c r="BJ86">
+        <v>2.44</v>
+      </c>
+      <c r="BK86">
+        <v>1.82</v>
+      </c>
+      <c r="BL86">
+        <v>1.98</v>
+      </c>
+      <c r="BM86">
+        <v>2.32</v>
+      </c>
+      <c r="BN86">
+        <v>1.54</v>
+      </c>
+      <c r="BO86">
+        <v>3.05</v>
+      </c>
+      <c r="BP86">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7482754</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>89</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>2.75</v>
+      </c>
+      <c r="R87">
+        <v>2.2</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>2.75</v>
+      </c>
+      <c r="W87">
+        <v>1.4</v>
+      </c>
+      <c r="X87">
+        <v>8</v>
+      </c>
+      <c r="Y87">
+        <v>1.08</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>3.2</v>
+      </c>
+      <c r="AB87">
+        <v>3.2</v>
+      </c>
+      <c r="AC87">
+        <v>1.05</v>
+      </c>
+      <c r="AD87">
+        <v>11</v>
+      </c>
+      <c r="AE87">
+        <v>1.3</v>
+      </c>
+      <c r="AF87">
+        <v>3.4</v>
+      </c>
+      <c r="AG87">
+        <v>1.83</v>
+      </c>
+      <c r="AH87">
+        <v>1.8</v>
+      </c>
+      <c r="AI87">
+        <v>1.7</v>
+      </c>
+      <c r="AJ87">
+        <v>2.05</v>
+      </c>
+      <c r="AK87">
+        <v>1.33</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.72</v>
+      </c>
+      <c r="AN87">
+        <v>1.33</v>
+      </c>
+      <c r="AO87">
+        <v>0.86</v>
+      </c>
+      <c r="AP87">
+        <v>1.14</v>
+      </c>
+      <c r="AQ87">
+        <v>1.13</v>
+      </c>
+      <c r="AR87">
+        <v>1.29</v>
+      </c>
+      <c r="AS87">
+        <v>1.08</v>
+      </c>
+      <c r="AT87">
+        <v>2.37</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>8</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>14</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.6</v>
+      </c>
+      <c r="BE87">
+        <v>6.8</v>
+      </c>
+      <c r="BF87">
+        <v>2.75</v>
+      </c>
+      <c r="BG87">
+        <v>1.3</v>
+      </c>
+      <c r="BH87">
+        <v>3.4</v>
+      </c>
+      <c r="BI87">
+        <v>1.54</v>
+      </c>
+      <c r="BJ87">
+        <v>2.38</v>
+      </c>
+      <c r="BK87">
+        <v>1.95</v>
+      </c>
+      <c r="BL87">
+        <v>1.85</v>
+      </c>
+      <c r="BM87">
+        <v>2.5</v>
+      </c>
+      <c r="BN87">
+        <v>1.5</v>
+      </c>
+      <c r="BO87">
+        <v>3.4</v>
+      </c>
+      <c r="BP87">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7482755</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>89</v>
+      </c>
+      <c r="P88" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q88">
+        <v>2.05</v>
+      </c>
+      <c r="R88">
+        <v>2.38</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>1.33</v>
+      </c>
+      <c r="U88">
+        <v>3.25</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.11</v>
+      </c>
+      <c r="Z88">
+        <v>1.44</v>
+      </c>
+      <c r="AA88">
+        <v>4.2</v>
+      </c>
+      <c r="AB88">
+        <v>5.25</v>
+      </c>
+      <c r="AC88">
+        <v>1.03</v>
+      </c>
+      <c r="AD88">
+        <v>13</v>
+      </c>
+      <c r="AE88">
+        <v>1.22</v>
+      </c>
+      <c r="AF88">
+        <v>4.2</v>
+      </c>
+      <c r="AG88">
+        <v>1.65</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.12</v>
+      </c>
+      <c r="AL88">
+        <v>1.17</v>
+      </c>
+      <c r="AM88">
+        <v>2.65</v>
+      </c>
+      <c r="AN88">
+        <v>2.71</v>
+      </c>
+      <c r="AO88">
+        <v>0.71</v>
+      </c>
+      <c r="AP88">
+        <v>2.38</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.65</v>
+      </c>
+      <c r="AS88">
+        <v>1.2</v>
+      </c>
+      <c r="AT88">
+        <v>2.85</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>16</v>
+      </c>
+      <c r="AZ88">
+        <v>11</v>
+      </c>
+      <c r="BA88">
+        <v>11</v>
+      </c>
+      <c r="BB88">
+        <v>5</v>
+      </c>
+      <c r="BC88">
+        <v>16</v>
+      </c>
+      <c r="BD88">
+        <v>1.23</v>
+      </c>
+      <c r="BE88">
+        <v>7.8</v>
+      </c>
+      <c r="BF88">
+        <v>5.35</v>
+      </c>
+      <c r="BG88">
+        <v>1.23</v>
+      </c>
+      <c r="BH88">
+        <v>4.13</v>
+      </c>
+      <c r="BI88">
+        <v>1.44</v>
+      </c>
+      <c r="BJ88">
+        <v>2.8</v>
+      </c>
+      <c r="BK88">
+        <v>1.92</v>
+      </c>
+      <c r="BL88">
+        <v>1.88</v>
+      </c>
+      <c r="BM88">
+        <v>2.15</v>
+      </c>
+      <c r="BN88">
+        <v>1.7</v>
+      </c>
+      <c r="BO88">
+        <v>2.82</v>
+      </c>
+      <c r="BP88">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7482753</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>150</v>
+      </c>
+      <c r="P89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q89">
+        <v>2.75</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.36</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>2.63</v>
+      </c>
+      <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>7</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>2.29</v>
+      </c>
+      <c r="AA89">
+        <v>3.38</v>
+      </c>
+      <c r="AB89">
+        <v>2.72</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>13</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.75</v>
+      </c>
+      <c r="AG89">
+        <v>1.69</v>
+      </c>
+      <c r="AH89">
+        <v>1.97</v>
+      </c>
+      <c r="AI89">
+        <v>1.67</v>
+      </c>
+      <c r="AJ89">
+        <v>2.1</v>
+      </c>
+      <c r="AK89">
+        <v>1.35</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.75</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>1.14</v>
+      </c>
+      <c r="AP89">
+        <v>0.88</v>
+      </c>
+      <c r="AQ89">
+        <v>1.38</v>
+      </c>
+      <c r="AR89">
+        <v>1.4</v>
+      </c>
+      <c r="AS89">
+        <v>1.26</v>
+      </c>
+      <c r="AT89">
+        <v>2.66</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>3</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>7</v>
+      </c>
+      <c r="AZ89">
         <v>12</v>
       </c>
-      <c r="AZ86">
-        <v>26</v>
-      </c>
-      <c r="BA86">
-        <v>2</v>
-      </c>
-      <c r="BB86">
-        <v>11</v>
-      </c>
-      <c r="BC86">
-        <v>13</v>
-      </c>
-      <c r="BD86">
-        <v>1.91</v>
-      </c>
-      <c r="BE86">
-        <v>8</v>
-      </c>
-      <c r="BF86">
-        <v>2.2</v>
-      </c>
-      <c r="BG86">
-        <v>1.25</v>
-      </c>
-      <c r="BH86">
-        <v>3.58</v>
-      </c>
-      <c r="BI86">
-        <v>1.45</v>
-      </c>
-      <c r="BJ86">
-        <v>2.55</v>
-      </c>
-      <c r="BK86">
+      <c r="BA89">
+        <v>4</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>6</v>
+      </c>
+      <c r="BD89">
         <v>1.75</v>
       </c>
-      <c r="BL86">
-        <v>1.96</v>
-      </c>
-      <c r="BM86">
-        <v>2.21</v>
-      </c>
-      <c r="BN86">
-        <v>1.59</v>
-      </c>
-      <c r="BO86">
-        <v>2.9</v>
-      </c>
-      <c r="BP86">
-        <v>1.36</v>
+      <c r="BE89">
+        <v>7.1</v>
+      </c>
+      <c r="BF89">
+        <v>2.42</v>
+      </c>
+      <c r="BG89">
+        <v>1.27</v>
+      </c>
+      <c r="BH89">
+        <v>3.45</v>
+      </c>
+      <c r="BI89">
+        <v>1.41</v>
+      </c>
+      <c r="BJ89">
+        <v>2.7</v>
+      </c>
+      <c r="BK89">
+        <v>1.85</v>
+      </c>
+      <c r="BL89">
+        <v>1.95</v>
+      </c>
+      <c r="BM89">
+        <v>2.11</v>
+      </c>
+      <c r="BN89">
+        <v>1.65</v>
+      </c>
+      <c r="BO89">
+        <v>2.75</v>
+      </c>
+      <c r="BP89">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -460,12 +460,12 @@
     <t>['77', '86']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['8', '11', '36']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
@@ -595,10 +595,10 @@
     <t>['41', '48']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['80', '83', '90+2', '90+8']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
   <si>
     <t>['7', '87', '90+4']</t>
@@ -18075,7 +18075,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7482757</v>
+        <v>7482758</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18084,196 +18084,196 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45625.875</v>
+        <v>45626.54166666666</v>
       </c>
       <c r="F84">
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H84" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="P84" t="s">
         <v>193</v>
       </c>
       <c r="Q84">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R84">
+        <v>2.38</v>
+      </c>
+      <c r="S84">
+        <v>2.25</v>
+      </c>
+      <c r="T84">
+        <v>1.33</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>2.5</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.13</v>
+      </c>
+      <c r="Z84">
+        <v>3.85</v>
+      </c>
+      <c r="AA84">
+        <v>3.95</v>
+      </c>
+      <c r="AB84">
+        <v>1.77</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>17</v>
+      </c>
+      <c r="AE84">
+        <v>1.2</v>
+      </c>
+      <c r="AF84">
+        <v>4.33</v>
+      </c>
+      <c r="AG84">
+        <v>1.8</v>
+      </c>
+      <c r="AH84">
+        <v>1.88</v>
+      </c>
+      <c r="AI84">
+        <v>1.7</v>
+      </c>
+      <c r="AJ84">
+        <v>2.05</v>
+      </c>
+      <c r="AK84">
         <v>2.2</v>
       </c>
-      <c r="S84">
-        <v>3.1</v>
-      </c>
-      <c r="T84">
-        <v>1.4</v>
-      </c>
-      <c r="U84">
-        <v>2.75</v>
-      </c>
-      <c r="V84">
-        <v>2.75</v>
-      </c>
-      <c r="W84">
-        <v>1.4</v>
-      </c>
-      <c r="X84">
-        <v>8</v>
-      </c>
-      <c r="Y84">
-        <v>1.08</v>
-      </c>
-      <c r="Z84">
-        <v>2.65</v>
-      </c>
-      <c r="AA84">
-        <v>3.35</v>
-      </c>
-      <c r="AB84">
-        <v>2.49</v>
-      </c>
-      <c r="AC84">
-        <v>1.05</v>
-      </c>
-      <c r="AD84">
+      <c r="AL84">
+        <v>1.18</v>
+      </c>
+      <c r="AM84">
+        <v>1.2</v>
+      </c>
+      <c r="AN84">
+        <v>1.57</v>
+      </c>
+      <c r="AO84">
+        <v>1.14</v>
+      </c>
+      <c r="AP84">
+        <v>1.5</v>
+      </c>
+      <c r="AQ84">
+        <v>1.13</v>
+      </c>
+      <c r="AR84">
+        <v>1.2</v>
+      </c>
+      <c r="AS84">
+        <v>1.37</v>
+      </c>
+      <c r="AT84">
+        <v>2.57</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>1</v>
+      </c>
+      <c r="AX84">
         <v>11</v>
       </c>
-      <c r="AE84">
-        <v>1.3</v>
-      </c>
-      <c r="AF84">
-        <v>3.5</v>
-      </c>
-      <c r="AG84">
-        <v>2.01</v>
-      </c>
-      <c r="AH84">
-        <v>1.87</v>
-      </c>
-      <c r="AI84">
-        <v>1.67</v>
-      </c>
-      <c r="AJ84">
-        <v>2.1</v>
-      </c>
-      <c r="AK84">
-        <v>1.52</v>
-      </c>
-      <c r="AL84">
-        <v>1.25</v>
-      </c>
-      <c r="AM84">
-        <v>1.47</v>
-      </c>
-      <c r="AN84">
-        <v>1</v>
-      </c>
-      <c r="AO84">
-        <v>1.5</v>
-      </c>
-      <c r="AP84">
-        <v>0.86</v>
-      </c>
-      <c r="AQ84">
-        <v>1.71</v>
-      </c>
-      <c r="AR84">
-        <v>1.46</v>
-      </c>
-      <c r="AS84">
-        <v>1.38</v>
-      </c>
-      <c r="AT84">
-        <v>2.84</v>
-      </c>
-      <c r="AU84">
-        <v>7</v>
-      </c>
-      <c r="AV84">
-        <v>8</v>
-      </c>
-      <c r="AW84">
+      <c r="AY84">
         <v>3</v>
-      </c>
-      <c r="AX84">
-        <v>9</v>
-      </c>
-      <c r="AY84">
-        <v>12</v>
       </c>
       <c r="AZ84">
         <v>26</v>
       </c>
       <c r="BA84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC84">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD84">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="BE84">
         <v>8</v>
       </c>
       <c r="BF84">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="BG84">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BH84">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="BI84">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="BJ84">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="BK84">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="BL84">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="BM84">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="BN84">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="BO84">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP84">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18281,7 +18281,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7482758</v>
+        <v>7482756</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18296,10 +18296,10 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H85" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -18320,166 +18320,166 @@
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q85">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="R85">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S85">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T85">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V85">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W85">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y85">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z85">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="AA85">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AB85">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="AC85">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD85">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>3.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.89</v>
+      </c>
+      <c r="AH85">
+        <v>1.99</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.95</v>
+      </c>
+      <c r="AK85">
+        <v>2.3</v>
+      </c>
+      <c r="AL85">
         <v>1.2</v>
       </c>
-      <c r="AF85">
-        <v>4.33</v>
-      </c>
-      <c r="AG85">
-        <v>1.8</v>
-      </c>
-      <c r="AH85">
-        <v>1.88</v>
-      </c>
-      <c r="AI85">
-        <v>1.7</v>
-      </c>
-      <c r="AJ85">
-        <v>2.05</v>
-      </c>
-      <c r="AK85">
-        <v>2.2</v>
-      </c>
-      <c r="AL85">
-        <v>1.18</v>
-      </c>
       <c r="AM85">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AN85">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="AO85">
-        <v>1.14</v>
+        <v>2.17</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AR85">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS85">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT85">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV85">
         <v>7</v>
       </c>
       <c r="AW85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY85">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ85">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BA85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB85">
+        <v>7</v>
+      </c>
+      <c r="BC85">
         <v>9</v>
       </c>
-      <c r="BC85">
-        <v>10</v>
-      </c>
       <c r="BD85">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="BE85">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF85">
         <v>1.59</v>
       </c>
       <c r="BG85">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="BH85">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="BI85">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BJ85">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="BK85">
+        <v>1.82</v>
+      </c>
+      <c r="BL85">
         <v>1.98</v>
       </c>
-      <c r="BL85">
-        <v>1.82</v>
-      </c>
       <c r="BM85">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="BN85">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="BO85">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BP85">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18487,7 +18487,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7482756</v>
+        <v>7482757</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18502,190 +18502,190 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O86" t="s">
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q86">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="R86">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S86">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="T86">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V86">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>2.65</v>
+      </c>
+      <c r="AA86">
+        <v>3.35</v>
+      </c>
+      <c r="AB86">
+        <v>2.49</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.3</v>
+      </c>
+      <c r="AF86">
+        <v>3.5</v>
+      </c>
+      <c r="AG86">
+        <v>2.01</v>
+      </c>
+      <c r="AH86">
+        <v>1.87</v>
+      </c>
+      <c r="AI86">
+        <v>1.67</v>
+      </c>
+      <c r="AJ86">
+        <v>2.1</v>
+      </c>
+      <c r="AK86">
+        <v>1.52</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.47</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1.5</v>
+      </c>
+      <c r="AP86">
+        <v>0.86</v>
+      </c>
+      <c r="AQ86">
+        <v>1.71</v>
+      </c>
+      <c r="AR86">
+        <v>1.46</v>
+      </c>
+      <c r="AS86">
+        <v>1.38</v>
+      </c>
+      <c r="AT86">
+        <v>2.84</v>
+      </c>
+      <c r="AU86">
         <v>7</v>
       </c>
-      <c r="Y86">
-        <v>1.1</v>
-      </c>
-      <c r="Z86">
-        <v>5</v>
-      </c>
-      <c r="AA86">
-        <v>4.05</v>
-      </c>
-      <c r="AB86">
-        <v>1.58</v>
-      </c>
-      <c r="AC86">
-        <v>1.04</v>
-      </c>
-      <c r="AD86">
-        <v>12</v>
-      </c>
-      <c r="AE86">
-        <v>1.28</v>
-      </c>
-      <c r="AF86">
-        <v>3.75</v>
-      </c>
-      <c r="AG86">
-        <v>1.89</v>
-      </c>
-      <c r="AH86">
-        <v>1.99</v>
-      </c>
-      <c r="AI86">
-        <v>1.8</v>
-      </c>
-      <c r="AJ86">
-        <v>1.95</v>
-      </c>
-      <c r="AK86">
-        <v>2.3</v>
-      </c>
-      <c r="AL86">
-        <v>1.2</v>
-      </c>
-      <c r="AM86">
-        <v>1.16</v>
-      </c>
-      <c r="AN86">
-        <v>0.71</v>
-      </c>
-      <c r="AO86">
-        <v>2.17</v>
-      </c>
-      <c r="AP86">
-        <v>0.75</v>
-      </c>
-      <c r="AQ86">
-        <v>2</v>
-      </c>
-      <c r="AR86">
-        <v>1.26</v>
-      </c>
-      <c r="AS86">
-        <v>1.3</v>
-      </c>
-      <c r="AT86">
-        <v>2.56</v>
-      </c>
-      <c r="AU86">
-        <v>3</v>
-      </c>
       <c r="AV86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW86">
         <v>3</v>
       </c>
       <c r="AX86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY86">
+        <v>12</v>
+      </c>
+      <c r="AZ86">
+        <v>26</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>11</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>1.91</v>
+      </c>
+      <c r="BE86">
         <v>8</v>
       </c>
-      <c r="AZ86">
-        <v>18</v>
-      </c>
-      <c r="BA86">
-        <v>2</v>
-      </c>
-      <c r="BB86">
-        <v>7</v>
-      </c>
-      <c r="BC86">
-        <v>9</v>
-      </c>
-      <c r="BD86">
-        <v>2.78</v>
-      </c>
-      <c r="BE86">
-        <v>8.5</v>
-      </c>
       <c r="BF86">
+        <v>2.2</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.58</v>
+      </c>
+      <c r="BI86">
+        <v>1.45</v>
+      </c>
+      <c r="BJ86">
+        <v>2.55</v>
+      </c>
+      <c r="BK86">
+        <v>1.75</v>
+      </c>
+      <c r="BL86">
+        <v>1.96</v>
+      </c>
+      <c r="BM86">
+        <v>2.21</v>
+      </c>
+      <c r="BN86">
         <v>1.59</v>
       </c>
-      <c r="BG86">
-        <v>1.27</v>
-      </c>
-      <c r="BH86">
-        <v>3.38</v>
-      </c>
-      <c r="BI86">
-        <v>1.49</v>
-      </c>
-      <c r="BJ86">
-        <v>2.44</v>
-      </c>
-      <c r="BK86">
-        <v>1.82</v>
-      </c>
-      <c r="BL86">
-        <v>1.98</v>
-      </c>
-      <c r="BM86">
-        <v>2.32</v>
-      </c>
-      <c r="BN86">
-        <v>1.54</v>
-      </c>
       <c r="BO86">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BP86">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -19052,13 +19052,13 @@
         <v>11</v>
       </c>
       <c r="BA88">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB88">
         <v>5</v>
       </c>
       <c r="BC88">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD88">
         <v>1.23</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['34', '36', '50', '75']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1431,7 +1434,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1637,7 +1640,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2461,7 +2464,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2873,7 +2876,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -2951,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3366,7 +3369,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3697,7 +3700,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3903,7 +3906,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4109,7 +4112,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4933,7 +4936,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5139,7 +5142,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5345,7 +5348,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5551,7 +5554,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6169,7 +6172,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6375,7 +6378,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6581,7 +6584,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6993,7 +6996,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7611,7 +7614,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7817,7 +7820,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8023,7 +8026,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8104,7 +8107,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8229,7 +8232,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8641,7 +8644,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8847,7 +8850,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9053,7 +9056,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9465,7 +9468,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9671,7 +9674,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9955,7 +9958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10289,7 +10292,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10495,7 +10498,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10701,7 +10704,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10782,7 +10785,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11525,7 +11528,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11937,7 +11940,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12221,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12349,7 +12352,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12555,7 +12558,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12761,7 +12764,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12967,7 +12970,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13048,7 +13051,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ59">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13585,7 +13588,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14203,7 +14206,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14409,7 +14412,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14693,7 +14696,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ67">
         <v>0.75</v>
@@ -14821,7 +14824,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14902,7 +14905,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>1.38</v>
@@ -15645,7 +15648,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16057,7 +16060,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16469,7 +16472,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16881,7 +16884,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -16959,7 +16962,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ78">
         <v>1.86</v>
@@ -17499,7 +17502,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17992,7 +17995,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ83">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
         <v>1.76</v>
@@ -18117,7 +18120,7 @@
         <v>120</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18323,7 +18326,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
@@ -18529,7 +18532,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18735,7 +18738,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19147,7 +19150,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19304,6 +19307,212 @@
       </c>
       <c r="BP89">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7482687</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45630.6875</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>151</v>
+      </c>
+      <c r="P90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <v>1.83</v>
+      </c>
+      <c r="R90">
+        <v>2.6</v>
+      </c>
+      <c r="S90">
+        <v>7</v>
+      </c>
+      <c r="T90">
+        <v>1.29</v>
+      </c>
+      <c r="U90">
+        <v>3.5</v>
+      </c>
+      <c r="V90">
+        <v>2.25</v>
+      </c>
+      <c r="W90">
+        <v>1.57</v>
+      </c>
+      <c r="X90">
+        <v>5.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.14</v>
+      </c>
+      <c r="Z90">
+        <v>1.23</v>
+      </c>
+      <c r="AA90">
+        <v>6.34</v>
+      </c>
+      <c r="AB90">
+        <v>6.89</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>17</v>
+      </c>
+      <c r="AE90">
+        <v>1.17</v>
+      </c>
+      <c r="AF90">
+        <v>4.75</v>
+      </c>
+      <c r="AG90">
+        <v>1.55</v>
+      </c>
+      <c r="AH90">
+        <v>2.3</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.95</v>
+      </c>
+      <c r="AK90">
+        <v>1.06</v>
+      </c>
+      <c r="AL90">
+        <v>1.12</v>
+      </c>
+      <c r="AM90">
+        <v>3.2</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>0.83</v>
+      </c>
+      <c r="AP90">
+        <v>2.17</v>
+      </c>
+      <c r="AQ90">
+        <v>0.71</v>
+      </c>
+      <c r="AR90">
+        <v>2.08</v>
+      </c>
+      <c r="AS90">
+        <v>1.15</v>
+      </c>
+      <c r="AT90">
+        <v>3.23</v>
+      </c>
+      <c r="AU90">
+        <v>11</v>
+      </c>
+      <c r="AV90">
+        <v>2</v>
+      </c>
+      <c r="AW90">
+        <v>7</v>
+      </c>
+      <c r="AX90">
+        <v>6</v>
+      </c>
+      <c r="AY90">
+        <v>22</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>6</v>
+      </c>
+      <c r="BC90">
+        <v>10</v>
+      </c>
+      <c r="BD90">
+        <v>1.26</v>
+      </c>
+      <c r="BE90">
+        <v>10</v>
+      </c>
+      <c r="BF90">
+        <v>4.86</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>1.55</v>
+      </c>
+      <c r="BJ90">
+        <v>2.3</v>
+      </c>
+      <c r="BK90">
+        <v>2</v>
+      </c>
+      <c r="BL90">
+        <v>1.8</v>
+      </c>
+      <c r="BM90">
+        <v>2.4</v>
+      </c>
+      <c r="BN90">
+        <v>1.5</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,12 @@
     <t>['34', '36', '50', '75']</t>
   </si>
   <si>
+    <t>['34', '56']</t>
+  </si>
+  <si>
+    <t>['48', '50']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -608,6 +614,15 @@
   </si>
   <si>
     <t>['20', '48', '78']</t>
+  </si>
+  <si>
+    <t>['48', '74']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['15', '80', '85']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1243,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1434,7 +1449,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1640,7 +1655,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1721,7 +1736,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1924,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2133,7 +2148,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2464,7 +2479,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2748,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2876,7 +2891,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -2954,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3575,7 +3590,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3700,7 +3715,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3781,7 +3796,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR14">
         <v>0.52</v>
@@ -3906,7 +3921,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4112,7 +4127,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4936,7 +4951,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5014,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5142,7 +5157,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5348,7 +5363,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5426,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5554,7 +5569,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5635,7 +5650,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5841,7 +5856,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6172,7 +6187,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6378,7 +6393,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6584,7 +6599,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -6996,7 +7011,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7280,10 +7295,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7489,7 +7504,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7614,7 +7629,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7820,7 +7835,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8026,7 +8041,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8232,7 +8247,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8516,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -8644,7 +8659,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8850,7 +8865,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9056,7 +9071,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9137,7 +9152,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9468,7 +9483,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9549,7 +9564,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -9674,7 +9689,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9755,7 +9770,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ43">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
@@ -9958,7 +9973,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10292,7 +10307,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10370,7 +10385,7 @@
         <v>0.75</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10498,7 +10513,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10704,7 +10719,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10782,7 +10797,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>0.71</v>
@@ -11194,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11528,7 +11543,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11609,7 +11624,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -11940,7 +11955,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12224,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12352,7 +12367,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12558,7 +12573,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12764,7 +12779,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12842,10 +12857,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ58">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -12970,7 +12985,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13588,7 +13603,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13872,7 +13887,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14081,7 +14096,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14206,7 +14221,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14287,7 +14302,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14412,7 +14427,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14493,7 +14508,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.79</v>
@@ -14696,7 +14711,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.75</v>
@@ -14824,7 +14839,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15108,7 +15123,7 @@
         <v>0.8</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>0.57</v>
@@ -15648,7 +15663,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15726,7 +15741,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ72">
         <v>1.38</v>
@@ -16060,7 +16075,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16141,7 +16156,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16472,7 +16487,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16553,7 +16568,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16884,7 +16899,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -16962,10 +16977,10 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>2.16</v>
@@ -17168,10 +17183,10 @@
         <v>1.17</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>0.96</v>
@@ -17502,7 +17517,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17786,7 +17801,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>0.57</v>
@@ -18120,7 +18135,7 @@
         <v>120</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18326,7 +18341,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
@@ -18407,7 +18422,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR85">
         <v>1.26</v>
@@ -18532,7 +18547,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18738,7 +18753,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19150,7 +19165,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19434,7 +19449,7 @@
         <v>0.83</v>
       </c>
       <c r="AP90">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>0.71</v>
@@ -19513,6 +19528,624 @@
       </c>
       <c r="BP90">
         <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7482759</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45633.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>152</v>
+      </c>
+      <c r="P91" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q91">
+        <v>2.4</v>
+      </c>
+      <c r="R91">
+        <v>2.3</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>1.3</v>
+      </c>
+      <c r="U91">
+        <v>3.4</v>
+      </c>
+      <c r="V91">
+        <v>2.5</v>
+      </c>
+      <c r="W91">
+        <v>1.5</v>
+      </c>
+      <c r="X91">
+        <v>6</v>
+      </c>
+      <c r="Y91">
+        <v>1.13</v>
+      </c>
+      <c r="Z91">
+        <v>1.85</v>
+      </c>
+      <c r="AA91">
+        <v>3.6</v>
+      </c>
+      <c r="AB91">
+        <v>4</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>15</v>
+      </c>
+      <c r="AE91">
+        <v>1.2</v>
+      </c>
+      <c r="AF91">
+        <v>4.33</v>
+      </c>
+      <c r="AG91">
+        <v>1.58</v>
+      </c>
+      <c r="AH91">
+        <v>2.2</v>
+      </c>
+      <c r="AI91">
+        <v>1.57</v>
+      </c>
+      <c r="AJ91">
+        <v>2.25</v>
+      </c>
+      <c r="AK91">
+        <v>1.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.9</v>
+      </c>
+      <c r="AN91">
+        <v>2.17</v>
+      </c>
+      <c r="AO91">
+        <v>1.14</v>
+      </c>
+      <c r="AP91">
+        <v>2</v>
+      </c>
+      <c r="AQ91">
+        <v>1.13</v>
+      </c>
+      <c r="AR91">
+        <v>2.1</v>
+      </c>
+      <c r="AS91">
+        <v>1.29</v>
+      </c>
+      <c r="AT91">
+        <v>3.39</v>
+      </c>
+      <c r="AU91">
+        <v>9</v>
+      </c>
+      <c r="AV91">
+        <v>13</v>
+      </c>
+      <c r="AW91">
+        <v>8</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+      <c r="AY91">
+        <v>21</v>
+      </c>
+      <c r="AZ91">
+        <v>19</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>11</v>
+      </c>
+      <c r="BC91">
+        <v>16</v>
+      </c>
+      <c r="BD91">
+        <v>1.69</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>2.62</v>
+      </c>
+      <c r="BG91">
+        <v>1.34</v>
+      </c>
+      <c r="BH91">
+        <v>2.98</v>
+      </c>
+      <c r="BI91">
+        <v>1.6</v>
+      </c>
+      <c r="BJ91">
+        <v>2.19</v>
+      </c>
+      <c r="BK91">
+        <v>2</v>
+      </c>
+      <c r="BL91">
+        <v>1.72</v>
+      </c>
+      <c r="BM91">
+        <v>2.6</v>
+      </c>
+      <c r="BN91">
+        <v>1.44</v>
+      </c>
+      <c r="BO91">
+        <v>3.5</v>
+      </c>
+      <c r="BP91">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7482760</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45633.54166666666</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>153</v>
+      </c>
+      <c r="P92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q92">
+        <v>3.25</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>3.25</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.75</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.75</v>
+      </c>
+      <c r="AA92">
+        <v>3.4</v>
+      </c>
+      <c r="AB92">
+        <v>2.4</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>11</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.91</v>
+      </c>
+      <c r="AH92">
+        <v>1.83</v>
+      </c>
+      <c r="AI92">
+        <v>1.75</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.5</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.47</v>
+      </c>
+      <c r="AN92">
+        <v>1.38</v>
+      </c>
+      <c r="AO92">
+        <v>1.86</v>
+      </c>
+      <c r="AP92">
+        <v>1.56</v>
+      </c>
+      <c r="AQ92">
+        <v>1.63</v>
+      </c>
+      <c r="AR92">
+        <v>1.53</v>
+      </c>
+      <c r="AS92">
+        <v>1.15</v>
+      </c>
+      <c r="AT92">
+        <v>2.68</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>11</v>
+      </c>
+      <c r="AZ92">
+        <v>5</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>2</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>2</v>
+      </c>
+      <c r="BG92">
+        <v>1.27</v>
+      </c>
+      <c r="BH92">
+        <v>3.38</v>
+      </c>
+      <c r="BI92">
+        <v>1.49</v>
+      </c>
+      <c r="BJ92">
+        <v>2.44</v>
+      </c>
+      <c r="BK92">
+        <v>1.82</v>
+      </c>
+      <c r="BL92">
+        <v>1.88</v>
+      </c>
+      <c r="BM92">
+        <v>2.32</v>
+      </c>
+      <c r="BN92">
+        <v>1.54</v>
+      </c>
+      <c r="BO92">
+        <v>3.05</v>
+      </c>
+      <c r="BP92">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7482764</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45633.54166666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>89</v>
+      </c>
+      <c r="P93" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q93">
+        <v>6</v>
+      </c>
+      <c r="R93">
+        <v>2.38</v>
+      </c>
+      <c r="S93">
+        <v>2.05</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>6</v>
+      </c>
+      <c r="AA93">
+        <v>4.1</v>
+      </c>
+      <c r="AB93">
+        <v>1.5</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>13</v>
+      </c>
+      <c r="AE93">
+        <v>1.22</v>
+      </c>
+      <c r="AF93">
+        <v>4</v>
+      </c>
+      <c r="AG93">
+        <v>1.75</v>
+      </c>
+      <c r="AH93">
+        <v>2.01</v>
+      </c>
+      <c r="AI93">
+        <v>1.91</v>
+      </c>
+      <c r="AJ93">
+        <v>1.91</v>
+      </c>
+      <c r="AK93">
+        <v>2.65</v>
+      </c>
+      <c r="AL93">
+        <v>1.17</v>
+      </c>
+      <c r="AM93">
+        <v>1.11</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>2</v>
+      </c>
+      <c r="AP93">
+        <v>0.88</v>
+      </c>
+      <c r="AQ93">
+        <v>2.13</v>
+      </c>
+      <c r="AR93">
+        <v>0.89</v>
+      </c>
+      <c r="AS93">
+        <v>1.37</v>
+      </c>
+      <c r="AT93">
+        <v>2.26</v>
+      </c>
+      <c r="AU93">
+        <v>2</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>11</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>3.7</v>
+      </c>
+      <c r="BE93">
+        <v>9</v>
+      </c>
+      <c r="BF93">
+        <v>1.37</v>
+      </c>
+      <c r="BG93">
+        <v>1.22</v>
+      </c>
+      <c r="BH93">
+        <v>3.35</v>
+      </c>
+      <c r="BI93">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93">
+        <v>2.4</v>
+      </c>
+      <c r="BK93">
+        <v>1.82</v>
+      </c>
+      <c r="BL93">
+        <v>1.98</v>
+      </c>
+      <c r="BM93">
+        <v>2.2</v>
+      </c>
+      <c r="BN93">
+        <v>1.6</v>
+      </c>
+      <c r="BO93">
+        <v>3.02</v>
+      </c>
+      <c r="BP93">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,12 @@
     <t>['48', '50']</t>
   </si>
   <si>
+    <t>['39', '67']</t>
+  </si>
+  <si>
+    <t>['12', '64', '76']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -616,13 +622,19 @@
     <t>['20', '48', '78']</t>
   </si>
   <si>
+    <t>['15', '80', '85']</t>
+  </si>
+  <si>
     <t>['48', '74']</t>
   </si>
   <si>
     <t>['43']</t>
   </si>
   <si>
-    <t>['15', '80', '85']</t>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['36', '60', '84']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1255,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
         <v>1.13</v>
@@ -1449,7 +1461,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1655,7 +1667,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1942,7 +1954,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2351,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -2479,7 +2491,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2560,7 +2572,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2891,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3175,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ11">
         <v>1.71</v>
@@ -3384,7 +3396,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3715,7 +3727,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3921,7 +3933,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -3999,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4127,7 +4139,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4951,7 +4963,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5032,7 +5044,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5157,7 +5169,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5238,7 +5250,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -5363,7 +5375,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5569,7 +5581,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5647,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ23">
         <v>1.63</v>
@@ -5853,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6187,7 +6199,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6393,7 +6405,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6599,7 +6611,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7011,7 +7023,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7501,7 +7513,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>1.63</v>
@@ -7629,7 +7641,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7707,10 +7719,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -7835,7 +7847,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8041,7 +8053,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8122,7 +8134,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8247,7 +8259,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8659,7 +8671,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8865,7 +8877,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9071,7 +9083,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9149,7 +9161,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ40">
         <v>2.13</v>
@@ -9483,7 +9495,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9561,7 +9573,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
         <v>2.13</v>
@@ -9689,7 +9701,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10182,7 +10194,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10307,7 +10319,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10513,7 +10525,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10591,10 +10603,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10719,7 +10731,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10800,7 +10812,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11003,7 +11015,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11418,7 +11430,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11543,7 +11555,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11955,7 +11967,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12033,7 +12045,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ54">
         <v>1.71</v>
@@ -12242,7 +12254,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>2.36</v>
@@ -12367,7 +12379,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12573,7 +12585,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12779,7 +12791,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12985,7 +12997,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13066,7 +13078,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13269,7 +13281,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ60">
         <v>1.13</v>
@@ -13478,7 +13490,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13603,7 +13615,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14093,7 +14105,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14221,7 +14233,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14427,7 +14439,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14839,7 +14851,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14920,7 +14932,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.38</v>
@@ -15126,7 +15138,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>0.89</v>
@@ -15535,7 +15547,7 @@
         <v>0.83</v>
       </c>
       <c r="AP71">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15663,7 +15675,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15947,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ73">
         <v>1.13</v>
@@ -16075,7 +16087,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16359,7 +16371,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
         <v>1.13</v>
@@ -16487,7 +16499,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16774,7 +16786,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -16899,7 +16911,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17392,7 +17404,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR80">
         <v>1.71</v>
@@ -17517,7 +17529,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -17595,7 +17607,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -17804,7 +17816,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.54</v>
@@ -18007,10 +18019,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ83">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.76</v>
@@ -18135,7 +18147,7 @@
         <v>120</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18341,7 +18353,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
@@ -18547,7 +18559,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18625,7 +18637,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ86">
         <v>1.71</v>
@@ -18753,7 +18765,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19165,7 +19177,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19452,7 +19464,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>2.08</v>
@@ -19535,7 +19547,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7482759</v>
+        <v>7482764</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19544,196 +19556,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45633.54166666666</v>
+        <v>45632.875</v>
       </c>
       <c r="F91">
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O91" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q91">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="R91">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S91">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U91">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V91">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W91">
+        <v>1.44</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>6</v>
+      </c>
+      <c r="AA91">
+        <v>4.1</v>
+      </c>
+      <c r="AB91">
         <v>1.5</v>
-      </c>
-      <c r="X91">
-        <v>6</v>
-      </c>
-      <c r="Y91">
-        <v>1.13</v>
-      </c>
-      <c r="Z91">
-        <v>1.85</v>
-      </c>
-      <c r="AA91">
-        <v>3.6</v>
-      </c>
-      <c r="AB91">
-        <v>4</v>
       </c>
       <c r="AC91">
         <v>1.03</v>
       </c>
       <c r="AD91">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE91">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF91">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AG91">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="AH91">
+        <v>2.01</v>
+      </c>
+      <c r="AI91">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91">
+        <v>1.91</v>
+      </c>
+      <c r="AK91">
+        <v>2.65</v>
+      </c>
+      <c r="AL91">
+        <v>1.17</v>
+      </c>
+      <c r="AM91">
+        <v>1.11</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>2</v>
+      </c>
+      <c r="AP91">
+        <v>0.88</v>
+      </c>
+      <c r="AQ91">
+        <v>2.13</v>
+      </c>
+      <c r="AR91">
+        <v>0.89</v>
+      </c>
+      <c r="AS91">
+        <v>1.37</v>
+      </c>
+      <c r="AT91">
+        <v>2.26</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>11</v>
+      </c>
+      <c r="BA91">
+        <v>4</v>
+      </c>
+      <c r="BB91">
+        <v>2</v>
+      </c>
+      <c r="BC91">
+        <v>6</v>
+      </c>
+      <c r="BD91">
+        <v>3.7</v>
+      </c>
+      <c r="BE91">
+        <v>9</v>
+      </c>
+      <c r="BF91">
+        <v>1.37</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.35</v>
+      </c>
+      <c r="BI91">
+        <v>1.5</v>
+      </c>
+      <c r="BJ91">
+        <v>2.4</v>
+      </c>
+      <c r="BK91">
+        <v>1.82</v>
+      </c>
+      <c r="BL91">
+        <v>1.98</v>
+      </c>
+      <c r="BM91">
         <v>2.2</v>
       </c>
-      <c r="AI91">
-        <v>1.57</v>
-      </c>
-      <c r="AJ91">
-        <v>2.25</v>
-      </c>
-      <c r="AK91">
-        <v>1.25</v>
-      </c>
-      <c r="AL91">
-        <v>1.22</v>
-      </c>
-      <c r="AM91">
-        <v>1.9</v>
-      </c>
-      <c r="AN91">
-        <v>2.17</v>
-      </c>
-      <c r="AO91">
-        <v>1.14</v>
-      </c>
-      <c r="AP91">
-        <v>2</v>
-      </c>
-      <c r="AQ91">
-        <v>1.13</v>
-      </c>
-      <c r="AR91">
-        <v>2.1</v>
-      </c>
-      <c r="AS91">
-        <v>1.29</v>
-      </c>
-      <c r="AT91">
-        <v>3.39</v>
-      </c>
-      <c r="AU91">
-        <v>9</v>
-      </c>
-      <c r="AV91">
-        <v>13</v>
-      </c>
-      <c r="AW91">
-        <v>8</v>
-      </c>
-      <c r="AX91">
-        <v>3</v>
-      </c>
-      <c r="AY91">
-        <v>21</v>
-      </c>
-      <c r="AZ91">
-        <v>19</v>
-      </c>
-      <c r="BA91">
-        <v>5</v>
-      </c>
-      <c r="BB91">
-        <v>11</v>
-      </c>
-      <c r="BC91">
-        <v>16</v>
-      </c>
-      <c r="BD91">
-        <v>1.69</v>
-      </c>
-      <c r="BE91">
-        <v>8</v>
-      </c>
-      <c r="BF91">
-        <v>2.62</v>
-      </c>
-      <c r="BG91">
-        <v>1.34</v>
-      </c>
-      <c r="BH91">
-        <v>2.98</v>
-      </c>
-      <c r="BI91">
+      <c r="BN91">
         <v>1.6</v>
       </c>
-      <c r="BJ91">
-        <v>2.19</v>
-      </c>
-      <c r="BK91">
-        <v>2</v>
-      </c>
-      <c r="BL91">
-        <v>1.72</v>
-      </c>
-      <c r="BM91">
-        <v>2.6</v>
-      </c>
-      <c r="BN91">
-        <v>1.44</v>
-      </c>
       <c r="BO91">
-        <v>3.5</v>
+        <v>3.02</v>
       </c>
       <c r="BP91">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19741,7 +19753,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7482760</v>
+        <v>7482759</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19756,16 +19768,16 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -19774,172 +19786,172 @@
         <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q92">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R92">
+        <v>2.3</v>
+      </c>
+      <c r="S92">
+        <v>4</v>
+      </c>
+      <c r="T92">
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <v>3.4</v>
+      </c>
+      <c r="V92">
+        <v>2.5</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>6</v>
+      </c>
+      <c r="Y92">
+        <v>1.13</v>
+      </c>
+      <c r="Z92">
+        <v>1.85</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>4</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>15</v>
+      </c>
+      <c r="AE92">
+        <v>1.2</v>
+      </c>
+      <c r="AF92">
+        <v>4.33</v>
+      </c>
+      <c r="AG92">
+        <v>1.58</v>
+      </c>
+      <c r="AH92">
+        <v>2.2</v>
+      </c>
+      <c r="AI92">
+        <v>1.57</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.25</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
+        <v>1.9</v>
+      </c>
+      <c r="AN92">
+        <v>2.17</v>
+      </c>
+      <c r="AO92">
+        <v>1.14</v>
+      </c>
+      <c r="AP92">
+        <v>2</v>
+      </c>
+      <c r="AQ92">
+        <v>1.13</v>
+      </c>
+      <c r="AR92">
         <v>2.1</v>
       </c>
-      <c r="S92">
-        <v>3.25</v>
-      </c>
-      <c r="T92">
-        <v>1.4</v>
-      </c>
-      <c r="U92">
-        <v>2.75</v>
-      </c>
-      <c r="V92">
-        <v>3</v>
-      </c>
-      <c r="W92">
-        <v>1.36</v>
-      </c>
-      <c r="X92">
-        <v>8</v>
-      </c>
-      <c r="Y92">
-        <v>1.08</v>
-      </c>
-      <c r="Z92">
-        <v>2.75</v>
-      </c>
-      <c r="AA92">
-        <v>3.4</v>
-      </c>
-      <c r="AB92">
-        <v>2.4</v>
-      </c>
-      <c r="AC92">
-        <v>1.05</v>
-      </c>
-      <c r="AD92">
+      <c r="AS92">
+        <v>1.29</v>
+      </c>
+      <c r="AT92">
+        <v>3.39</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
+        <v>13</v>
+      </c>
+      <c r="AW92">
+        <v>9</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>22</v>
+      </c>
+      <c r="AZ92">
+        <v>19</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
         <v>11</v>
       </c>
-      <c r="AE92">
-        <v>1.3</v>
-      </c>
-      <c r="AF92">
-        <v>3.5</v>
-      </c>
-      <c r="AG92">
-        <v>1.91</v>
-      </c>
-      <c r="AH92">
-        <v>1.83</v>
-      </c>
-      <c r="AI92">
-        <v>1.75</v>
-      </c>
-      <c r="AJ92">
-        <v>2</v>
-      </c>
-      <c r="AK92">
-        <v>1.5</v>
-      </c>
-      <c r="AL92">
-        <v>1.28</v>
-      </c>
-      <c r="AM92">
-        <v>1.47</v>
-      </c>
-      <c r="AN92">
-        <v>1.38</v>
-      </c>
-      <c r="AO92">
-        <v>1.86</v>
-      </c>
-      <c r="AP92">
-        <v>1.56</v>
-      </c>
-      <c r="AQ92">
-        <v>1.63</v>
-      </c>
-      <c r="AR92">
-        <v>1.53</v>
-      </c>
-      <c r="AS92">
-        <v>1.15</v>
-      </c>
-      <c r="AT92">
-        <v>2.68</v>
-      </c>
-      <c r="AU92">
-        <v>3</v>
-      </c>
-      <c r="AV92">
-        <v>3</v>
-      </c>
-      <c r="AW92">
-        <v>8</v>
-      </c>
-      <c r="AX92">
-        <v>1</v>
-      </c>
-      <c r="AY92">
-        <v>11</v>
-      </c>
-      <c r="AZ92">
-        <v>5</v>
-      </c>
-      <c r="BA92">
-        <v>4</v>
-      </c>
-      <c r="BB92">
-        <v>4</v>
-      </c>
       <c r="BC92">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD92">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BE92">
         <v>8</v>
       </c>
       <c r="BF92">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="BG92">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BH92">
-        <v>3.38</v>
+        <v>2.98</v>
       </c>
       <c r="BI92">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BJ92">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="BK92">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BL92">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="BM92">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN92">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="BO92">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="BP92">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19947,7 +19959,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7482764</v>
+        <v>7482760</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19962,10 +19974,10 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -19977,175 +19989,793 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>3</v>
       </c>
       <c r="O93" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q93">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="R93">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="T93">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V93">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W93">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z93">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="AA93">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB93">
+        <v>2.4</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>11</v>
+      </c>
+      <c r="AE93">
+        <v>1.3</v>
+      </c>
+      <c r="AF93">
+        <v>3.5</v>
+      </c>
+      <c r="AG93">
+        <v>1.91</v>
+      </c>
+      <c r="AH93">
+        <v>1.83</v>
+      </c>
+      <c r="AI93">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
         <v>1.5</v>
       </c>
-      <c r="AC93">
-        <v>1.03</v>
-      </c>
-      <c r="AD93">
-        <v>13</v>
-      </c>
-      <c r="AE93">
-        <v>1.22</v>
-      </c>
-      <c r="AF93">
-        <v>4</v>
-      </c>
-      <c r="AG93">
-        <v>1.75</v>
-      </c>
-      <c r="AH93">
-        <v>2.01</v>
-      </c>
-      <c r="AI93">
-        <v>1.91</v>
-      </c>
-      <c r="AJ93">
-        <v>1.91</v>
-      </c>
-      <c r="AK93">
-        <v>2.65</v>
-      </c>
       <c r="AL93">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AM93">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO93">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP93">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AR93">
-        <v>0.89</v>
+        <v>1.53</v>
       </c>
       <c r="AS93">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="AT93">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="AU93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW93">
+        <v>8</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>12</v>
+      </c>
+      <c r="AZ93">
         <v>5</v>
-      </c>
-      <c r="AX93">
-        <v>4</v>
-      </c>
-      <c r="AY93">
-        <v>8</v>
-      </c>
-      <c r="AZ93">
-        <v>11</v>
       </c>
       <c r="BA93">
         <v>4</v>
       </c>
       <c r="BB93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD93">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="BE93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF93">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="BG93">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH93">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="BI93">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BJ93">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="BK93">
         <v>1.82</v>
       </c>
       <c r="BL93">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BM93">
+        <v>2.32</v>
+      </c>
+      <c r="BN93">
+        <v>1.54</v>
+      </c>
+      <c r="BO93">
+        <v>3.05</v>
+      </c>
+      <c r="BP93">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7482762</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45634.4375</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q94">
+        <v>2.6</v>
+      </c>
+      <c r="R94">
         <v>2.2</v>
       </c>
-      <c r="BN93">
-        <v>1.6</v>
-      </c>
-      <c r="BO93">
-        <v>3.02</v>
-      </c>
-      <c r="BP93">
-        <v>1.27</v>
+      <c r="S94">
+        <v>4.33</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>1.9</v>
+      </c>
+      <c r="AA94">
+        <v>3.6</v>
+      </c>
+      <c r="AB94">
+        <v>3.8</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>11</v>
+      </c>
+      <c r="AE94">
+        <v>1.3</v>
+      </c>
+      <c r="AF94">
+        <v>3.4</v>
+      </c>
+      <c r="AG94">
+        <v>1.89</v>
+      </c>
+      <c r="AH94">
+        <v>1.8</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.95</v>
+      </c>
+      <c r="AK94">
+        <v>1.3</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.8</v>
+      </c>
+      <c r="AN94">
+        <v>1.71</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94">
+        <v>1.88</v>
+      </c>
+      <c r="AQ94">
+        <v>0.88</v>
+      </c>
+      <c r="AR94">
+        <v>1.33</v>
+      </c>
+      <c r="AS94">
+        <v>1.08</v>
+      </c>
+      <c r="AT94">
+        <v>2.41</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>1</v>
+      </c>
+      <c r="AY94">
+        <v>13</v>
+      </c>
+      <c r="AZ94">
+        <v>6</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>1.69</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>2.54</v>
+      </c>
+      <c r="BG94">
+        <v>1.29</v>
+      </c>
+      <c r="BH94">
+        <v>3.25</v>
+      </c>
+      <c r="BI94">
+        <v>1.52</v>
+      </c>
+      <c r="BJ94">
+        <v>2.36</v>
+      </c>
+      <c r="BK94">
+        <v>1.85</v>
+      </c>
+      <c r="BL94">
+        <v>1.85</v>
+      </c>
+      <c r="BM94">
+        <v>2.39</v>
+      </c>
+      <c r="BN94">
+        <v>1.51</v>
+      </c>
+      <c r="BO94">
+        <v>3.2</v>
+      </c>
+      <c r="BP94">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7482763</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45634.4375</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>89</v>
+      </c>
+      <c r="P95" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q95">
+        <v>3.4</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>3.1</v>
+      </c>
+      <c r="T95">
+        <v>1.4</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>2.75</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.65</v>
+      </c>
+      <c r="AA95">
+        <v>3.25</v>
+      </c>
+      <c r="AB95">
+        <v>2.6</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>13</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>4.2</v>
+      </c>
+      <c r="AG95">
+        <v>1.8</v>
+      </c>
+      <c r="AH95">
+        <v>1.89</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.68</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.36</v>
+      </c>
+      <c r="AN95">
+        <v>0.86</v>
+      </c>
+      <c r="AO95">
+        <v>0.71</v>
+      </c>
+      <c r="AP95">
+        <v>0.75</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.42</v>
+      </c>
+      <c r="AS95">
+        <v>1.11</v>
+      </c>
+      <c r="AT95">
+        <v>2.53</v>
+      </c>
+      <c r="AU95">
+        <v>2</v>
+      </c>
+      <c r="AV95">
+        <v>8</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>7</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>19</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>7</v>
+      </c>
+      <c r="BC95">
+        <v>8</v>
+      </c>
+      <c r="BD95">
+        <v>2</v>
+      </c>
+      <c r="BE95">
+        <v>8</v>
+      </c>
+      <c r="BF95">
+        <v>2</v>
+      </c>
+      <c r="BG95">
+        <v>1.29</v>
+      </c>
+      <c r="BH95">
+        <v>3.25</v>
+      </c>
+      <c r="BI95">
+        <v>1.52</v>
+      </c>
+      <c r="BJ95">
+        <v>2.36</v>
+      </c>
+      <c r="BK95">
+        <v>1.83</v>
+      </c>
+      <c r="BL95">
+        <v>1.85</v>
+      </c>
+      <c r="BM95">
+        <v>2.39</v>
+      </c>
+      <c r="BN95">
+        <v>1.51</v>
+      </c>
+      <c r="BO95">
+        <v>3.2</v>
+      </c>
+      <c r="BP95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7482761</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45634.54166666666</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>155</v>
+      </c>
+      <c r="P96" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q96">
+        <v>2.25</v>
+      </c>
+      <c r="R96">
+        <v>2.25</v>
+      </c>
+      <c r="S96">
+        <v>5.5</v>
+      </c>
+      <c r="T96">
+        <v>1.36</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.75</v>
+      </c>
+      <c r="W96">
+        <v>1.4</v>
+      </c>
+      <c r="X96">
+        <v>7</v>
+      </c>
+      <c r="Y96">
+        <v>1.1</v>
+      </c>
+      <c r="Z96">
+        <v>1.58</v>
+      </c>
+      <c r="AA96">
+        <v>4</v>
+      </c>
+      <c r="AB96">
+        <v>5.8</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>12</v>
+      </c>
+      <c r="AE96">
+        <v>1.28</v>
+      </c>
+      <c r="AF96">
+        <v>3.6</v>
+      </c>
+      <c r="AG96">
+        <v>1.85</v>
+      </c>
+      <c r="AH96">
+        <v>1.85</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.2</v>
+      </c>
+      <c r="AL96">
+        <v>1.22</v>
+      </c>
+      <c r="AM96">
+        <v>2.1</v>
+      </c>
+      <c r="AN96">
+        <v>2.71</v>
+      </c>
+      <c r="AO96">
+        <v>0.57</v>
+      </c>
+      <c r="AP96">
+        <v>2.75</v>
+      </c>
+      <c r="AQ96">
+        <v>0.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.72</v>
+      </c>
+      <c r="AS96">
+        <v>0.96</v>
+      </c>
+      <c r="AT96">
+        <v>2.68</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
+        <v>6</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>14</v>
+      </c>
+      <c r="AZ96">
+        <v>6</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>1</v>
+      </c>
+      <c r="BC96">
+        <v>3</v>
+      </c>
+      <c r="BD96">
+        <v>1.51</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>3.16</v>
+      </c>
+      <c r="BG96">
+        <v>1.29</v>
+      </c>
+      <c r="BH96">
+        <v>3.25</v>
+      </c>
+      <c r="BI96">
+        <v>1.52</v>
+      </c>
+      <c r="BJ96">
+        <v>2.36</v>
+      </c>
+      <c r="BK96">
+        <v>1.83</v>
+      </c>
+      <c r="BL96">
+        <v>1.85</v>
+      </c>
+      <c r="BM96">
+        <v>2.39</v>
+      </c>
+      <c r="BN96">
+        <v>1.51</v>
+      </c>
+      <c r="BO96">
+        <v>3.2</v>
+      </c>
+      <c r="BP96">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -622,13 +622,13 @@
     <t>['20', '48', '78']</t>
   </si>
   <si>
-    <t>['15', '80', '85']</t>
-  </si>
-  <si>
     <t>['48', '74']</t>
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['15', '80', '85']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -19547,7 +19547,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7482764</v>
+        <v>7482759</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19556,196 +19556,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45632.875</v>
+        <v>45633.54166666666</v>
       </c>
       <c r="F91">
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="P91" t="s">
         <v>202</v>
       </c>
       <c r="Q91">
+        <v>2.4</v>
+      </c>
+      <c r="R91">
+        <v>2.3</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>1.3</v>
+      </c>
+      <c r="U91">
+        <v>3.4</v>
+      </c>
+      <c r="V91">
+        <v>2.5</v>
+      </c>
+      <c r="W91">
+        <v>1.5</v>
+      </c>
+      <c r="X91">
         <v>6</v>
       </c>
-      <c r="R91">
-        <v>2.38</v>
-      </c>
-      <c r="S91">
-        <v>2.05</v>
-      </c>
-      <c r="T91">
-        <v>1.33</v>
-      </c>
-      <c r="U91">
-        <v>3.25</v>
-      </c>
-      <c r="V91">
-        <v>2.63</v>
-      </c>
-      <c r="W91">
-        <v>1.44</v>
-      </c>
-      <c r="X91">
-        <v>7</v>
-      </c>
       <c r="Y91">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z91">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="AA91">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB91">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="AC91">
         <v>1.03</v>
       </c>
       <c r="AD91">
+        <v>15</v>
+      </c>
+      <c r="AE91">
+        <v>1.2</v>
+      </c>
+      <c r="AF91">
+        <v>4.33</v>
+      </c>
+      <c r="AG91">
+        <v>1.58</v>
+      </c>
+      <c r="AH91">
+        <v>2.2</v>
+      </c>
+      <c r="AI91">
+        <v>1.57</v>
+      </c>
+      <c r="AJ91">
+        <v>2.25</v>
+      </c>
+      <c r="AK91">
+        <v>1.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.9</v>
+      </c>
+      <c r="AN91">
+        <v>2.17</v>
+      </c>
+      <c r="AO91">
+        <v>1.14</v>
+      </c>
+      <c r="AP91">
+        <v>2</v>
+      </c>
+      <c r="AQ91">
+        <v>1.13</v>
+      </c>
+      <c r="AR91">
+        <v>2.1</v>
+      </c>
+      <c r="AS91">
+        <v>1.29</v>
+      </c>
+      <c r="AT91">
+        <v>3.39</v>
+      </c>
+      <c r="AU91">
+        <v>9</v>
+      </c>
+      <c r="AV91">
         <v>13</v>
       </c>
-      <c r="AE91">
-        <v>1.22</v>
-      </c>
-      <c r="AF91">
-        <v>4</v>
-      </c>
-      <c r="AG91">
-        <v>1.75</v>
-      </c>
-      <c r="AH91">
-        <v>2.01</v>
-      </c>
-      <c r="AI91">
-        <v>1.91</v>
-      </c>
-      <c r="AJ91">
-        <v>1.91</v>
-      </c>
-      <c r="AK91">
-        <v>2.65</v>
-      </c>
-      <c r="AL91">
-        <v>1.17</v>
-      </c>
-      <c r="AM91">
-        <v>1.11</v>
-      </c>
-      <c r="AN91">
-        <v>1</v>
-      </c>
-      <c r="AO91">
-        <v>2</v>
-      </c>
-      <c r="AP91">
-        <v>0.88</v>
-      </c>
-      <c r="AQ91">
-        <v>2.13</v>
-      </c>
-      <c r="AR91">
-        <v>0.89</v>
-      </c>
-      <c r="AS91">
-        <v>1.37</v>
-      </c>
-      <c r="AT91">
-        <v>2.26</v>
-      </c>
-      <c r="AU91">
-        <v>2</v>
-      </c>
-      <c r="AV91">
-        <v>6</v>
-      </c>
       <c r="AW91">
+        <v>9</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+      <c r="AY91">
+        <v>22</v>
+      </c>
+      <c r="AZ91">
+        <v>19</v>
+      </c>
+      <c r="BA91">
         <v>5</v>
       </c>
-      <c r="AX91">
-        <v>4</v>
-      </c>
-      <c r="AY91">
+      <c r="BB91">
+        <v>11</v>
+      </c>
+      <c r="BC91">
+        <v>16</v>
+      </c>
+      <c r="BD91">
+        <v>1.69</v>
+      </c>
+      <c r="BE91">
         <v>8</v>
       </c>
-      <c r="AZ91">
-        <v>11</v>
-      </c>
-      <c r="BA91">
-        <v>4</v>
-      </c>
-      <c r="BB91">
-        <v>2</v>
-      </c>
-      <c r="BC91">
-        <v>6</v>
-      </c>
-      <c r="BD91">
-        <v>3.7</v>
-      </c>
-      <c r="BE91">
-        <v>9</v>
-      </c>
       <c r="BF91">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="BG91">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="BH91">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="BI91">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BJ91">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="BK91">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BL91">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="BM91">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="BN91">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="BO91">
-        <v>3.02</v>
+        <v>3.5</v>
       </c>
       <c r="BP91">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19753,7 +19753,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7482759</v>
+        <v>7482760</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19768,16 +19768,16 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -19786,172 +19786,172 @@
         <v>2</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O92" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P92" t="s">
         <v>203</v>
       </c>
       <c r="Q92">
+        <v>3.25</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>3.25</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.75</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.75</v>
+      </c>
+      <c r="AA92">
+        <v>3.4</v>
+      </c>
+      <c r="AB92">
         <v>2.4</v>
       </c>
-      <c r="R92">
-        <v>2.3</v>
-      </c>
-      <c r="S92">
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>11</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.91</v>
+      </c>
+      <c r="AH92">
+        <v>1.83</v>
+      </c>
+      <c r="AI92">
+        <v>1.75</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.5</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.47</v>
+      </c>
+      <c r="AN92">
+        <v>1.38</v>
+      </c>
+      <c r="AO92">
+        <v>1.86</v>
+      </c>
+      <c r="AP92">
+        <v>1.56</v>
+      </c>
+      <c r="AQ92">
+        <v>1.63</v>
+      </c>
+      <c r="AR92">
+        <v>1.53</v>
+      </c>
+      <c r="AS92">
+        <v>1.15</v>
+      </c>
+      <c r="AT92">
+        <v>2.68</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>5</v>
+      </c>
+      <c r="BA92">
         <v>4</v>
       </c>
-      <c r="T92">
-        <v>1.3</v>
-      </c>
-      <c r="U92">
-        <v>3.4</v>
-      </c>
-      <c r="V92">
-        <v>2.5</v>
-      </c>
-      <c r="W92">
-        <v>1.5</v>
-      </c>
-      <c r="X92">
-        <v>6</v>
-      </c>
-      <c r="Y92">
-        <v>1.13</v>
-      </c>
-      <c r="Z92">
-        <v>1.85</v>
-      </c>
-      <c r="AA92">
-        <v>3.6</v>
-      </c>
-      <c r="AB92">
+      <c r="BB92">
         <v>4</v>
       </c>
-      <c r="AC92">
-        <v>1.03</v>
-      </c>
-      <c r="AD92">
-        <v>15</v>
-      </c>
-      <c r="AE92">
-        <v>1.2</v>
-      </c>
-      <c r="AF92">
-        <v>4.33</v>
-      </c>
-      <c r="AG92">
-        <v>1.58</v>
-      </c>
-      <c r="AH92">
-        <v>2.2</v>
-      </c>
-      <c r="AI92">
-        <v>1.57</v>
-      </c>
-      <c r="AJ92">
-        <v>2.25</v>
-      </c>
-      <c r="AK92">
-        <v>1.25</v>
-      </c>
-      <c r="AL92">
-        <v>1.22</v>
-      </c>
-      <c r="AM92">
-        <v>1.9</v>
-      </c>
-      <c r="AN92">
-        <v>2.17</v>
-      </c>
-      <c r="AO92">
-        <v>1.14</v>
-      </c>
-      <c r="AP92">
-        <v>2</v>
-      </c>
-      <c r="AQ92">
-        <v>1.13</v>
-      </c>
-      <c r="AR92">
-        <v>2.1</v>
-      </c>
-      <c r="AS92">
-        <v>1.29</v>
-      </c>
-      <c r="AT92">
-        <v>3.39</v>
-      </c>
-      <c r="AU92">
-        <v>9</v>
-      </c>
-      <c r="AV92">
-        <v>13</v>
-      </c>
-      <c r="AW92">
-        <v>9</v>
-      </c>
-      <c r="AX92">
-        <v>3</v>
-      </c>
-      <c r="AY92">
-        <v>22</v>
-      </c>
-      <c r="AZ92">
-        <v>19</v>
-      </c>
-      <c r="BA92">
-        <v>5</v>
-      </c>
-      <c r="BB92">
-        <v>11</v>
-      </c>
       <c r="BC92">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD92">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="BE92">
         <v>8</v>
       </c>
       <c r="BF92">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="BG92">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BH92">
-        <v>2.98</v>
+        <v>3.38</v>
       </c>
       <c r="BI92">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BJ92">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="BK92">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BL92">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BM92">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="BN92">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="BO92">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="BP92">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19959,7 +19959,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7482760</v>
+        <v>7482764</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19974,10 +19974,10 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -19989,175 +19989,175 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N93">
         <v>3</v>
       </c>
       <c r="O93" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="P93" t="s">
         <v>204</v>
       </c>
       <c r="Q93">
+        <v>6</v>
+      </c>
+      <c r="R93">
+        <v>2.38</v>
+      </c>
+      <c r="S93">
+        <v>2.05</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
         <v>3.25</v>
       </c>
-      <c r="R93">
-        <v>2.1</v>
-      </c>
-      <c r="S93">
-        <v>3.25</v>
-      </c>
-      <c r="T93">
-        <v>1.4</v>
-      </c>
-      <c r="U93">
-        <v>2.75</v>
-      </c>
       <c r="V93">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W93">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>6</v>
+      </c>
+      <c r="AA93">
+        <v>4.1</v>
+      </c>
+      <c r="AB93">
+        <v>1.5</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>13</v>
+      </c>
+      <c r="AE93">
+        <v>1.22</v>
+      </c>
+      <c r="AF93">
+        <v>4</v>
+      </c>
+      <c r="AG93">
+        <v>1.75</v>
+      </c>
+      <c r="AH93">
+        <v>2.01</v>
+      </c>
+      <c r="AI93">
+        <v>1.91</v>
+      </c>
+      <c r="AJ93">
+        <v>1.91</v>
+      </c>
+      <c r="AK93">
+        <v>2.65</v>
+      </c>
+      <c r="AL93">
+        <v>1.17</v>
+      </c>
+      <c r="AM93">
+        <v>1.11</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>2</v>
+      </c>
+      <c r="AP93">
+        <v>0.88</v>
+      </c>
+      <c r="AQ93">
+        <v>2.13</v>
+      </c>
+      <c r="AR93">
+        <v>0.89</v>
+      </c>
+      <c r="AS93">
+        <v>1.37</v>
+      </c>
+      <c r="AT93">
+        <v>2.26</v>
+      </c>
+      <c r="AU93">
+        <v>2</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
         <v>8</v>
       </c>
-      <c r="Y93">
-        <v>1.08</v>
-      </c>
-      <c r="Z93">
-        <v>2.75</v>
-      </c>
-      <c r="AA93">
-        <v>3.4</v>
-      </c>
-      <c r="AB93">
-        <v>2.4</v>
-      </c>
-      <c r="AC93">
-        <v>1.05</v>
-      </c>
-      <c r="AD93">
+      <c r="AZ93">
         <v>11</v>
-      </c>
-      <c r="AE93">
-        <v>1.3</v>
-      </c>
-      <c r="AF93">
-        <v>3.5</v>
-      </c>
-      <c r="AG93">
-        <v>1.91</v>
-      </c>
-      <c r="AH93">
-        <v>1.83</v>
-      </c>
-      <c r="AI93">
-        <v>1.75</v>
-      </c>
-      <c r="AJ93">
-        <v>2</v>
-      </c>
-      <c r="AK93">
-        <v>1.5</v>
-      </c>
-      <c r="AL93">
-        <v>1.28</v>
-      </c>
-      <c r="AM93">
-        <v>1.47</v>
-      </c>
-      <c r="AN93">
-        <v>1.38</v>
-      </c>
-      <c r="AO93">
-        <v>1.86</v>
-      </c>
-      <c r="AP93">
-        <v>1.56</v>
-      </c>
-      <c r="AQ93">
-        <v>1.63</v>
-      </c>
-      <c r="AR93">
-        <v>1.53</v>
-      </c>
-      <c r="AS93">
-        <v>1.15</v>
-      </c>
-      <c r="AT93">
-        <v>2.68</v>
-      </c>
-      <c r="AU93">
-        <v>3</v>
-      </c>
-      <c r="AV93">
-        <v>3</v>
-      </c>
-      <c r="AW93">
-        <v>8</v>
-      </c>
-      <c r="AX93">
-        <v>1</v>
-      </c>
-      <c r="AY93">
-        <v>12</v>
-      </c>
-      <c r="AZ93">
-        <v>5</v>
       </c>
       <c r="BA93">
         <v>4</v>
       </c>
       <c r="BB93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC93">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD93">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="BE93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF93">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="BG93">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BH93">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="BI93">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BJ93">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="BK93">
         <v>1.82</v>
       </c>
       <c r="BL93">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BM93">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="BN93">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="BO93">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="BP93">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20177,7 +20177,7 @@
         <v>45634.4375</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>['12', '64', '76']</t>
+  </si>
+  <si>
+    <t>['40', '44', '73']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -996,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1258,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1461,7 +1464,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1667,7 +1670,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1954,7 +1957,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2491,7 +2494,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2903,7 +2906,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -2981,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3727,7 +3730,7 @@
         <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3933,7 +3936,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>3.1</v>
@@ -4139,7 +4142,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4963,7 +4966,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5044,7 +5047,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5169,7 +5172,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5375,7 +5378,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5581,7 +5584,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6199,7 +6202,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6405,7 +6408,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6611,7 +6614,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7023,7 +7026,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7641,7 +7644,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7847,7 +7850,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8053,7 +8056,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8259,7 +8262,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8671,7 +8674,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8877,7 +8880,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9083,7 +9086,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9495,7 +9498,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9701,7 +9704,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9985,7 +9988,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10319,7 +10322,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10525,7 +10528,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10606,7 +10609,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10731,7 +10734,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11430,7 +11433,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11555,7 +11558,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11967,7 +11970,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12251,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12379,7 +12382,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12585,7 +12588,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12791,7 +12794,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12997,7 +13000,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13490,7 +13493,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13615,7 +13618,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14233,7 +14236,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14439,7 +14442,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14723,7 +14726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
         <v>0.75</v>
@@ -14851,7 +14854,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15675,7 +15678,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16087,7 +16090,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16499,7 +16502,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16786,7 +16789,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -16911,7 +16914,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -16989,7 +16992,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78">
         <v>1.63</v>
@@ -17404,7 +17407,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ80">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.71</v>
@@ -17529,7 +17532,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18147,7 +18150,7 @@
         <v>120</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18353,7 +18356,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
@@ -18559,7 +18562,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18765,7 +18768,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19177,7 +19180,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19461,7 +19464,7 @@
         <v>0.83</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19589,7 +19592,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>2.4</v>
@@ -19667,7 +19670,7 @@
         <v>1.14</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -19795,7 +19798,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20001,7 +20004,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -20207,7 +20210,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20288,7 +20291,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20413,7 +20416,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20776,6 +20779,212 @@
       </c>
       <c r="BP96">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7482699</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45640.54166666666</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>156</v>
+      </c>
+      <c r="P97" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q97">
+        <v>1.62</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+      <c r="T97">
+        <v>1.18</v>
+      </c>
+      <c r="U97">
+        <v>4.5</v>
+      </c>
+      <c r="V97">
+        <v>1.83</v>
+      </c>
+      <c r="W97">
+        <v>1.83</v>
+      </c>
+      <c r="X97">
+        <v>3.75</v>
+      </c>
+      <c r="Y97">
+        <v>1.25</v>
+      </c>
+      <c r="Z97">
+        <v>1.2</v>
+      </c>
+      <c r="AA97">
+        <v>6.4</v>
+      </c>
+      <c r="AB97">
+        <v>11</v>
+      </c>
+      <c r="AC97">
+        <v>1.02</v>
+      </c>
+      <c r="AD97">
+        <v>17</v>
+      </c>
+      <c r="AE97">
+        <v>1.06</v>
+      </c>
+      <c r="AF97">
+        <v>6.6</v>
+      </c>
+      <c r="AG97">
+        <v>1.4</v>
+      </c>
+      <c r="AH97">
+        <v>2.75</v>
+      </c>
+      <c r="AI97">
+        <v>1.7</v>
+      </c>
+      <c r="AJ97">
+        <v>2.05</v>
+      </c>
+      <c r="AK97">
+        <v>1.01</v>
+      </c>
+      <c r="AL97">
+        <v>1.06</v>
+      </c>
+      <c r="AM97">
+        <v>4.5</v>
+      </c>
+      <c r="AN97">
+        <v>2</v>
+      </c>
+      <c r="AO97">
+        <v>0.88</v>
+      </c>
+      <c r="AP97">
+        <v>2.13</v>
+      </c>
+      <c r="AQ97">
+        <v>0.78</v>
+      </c>
+      <c r="AR97">
+        <v>2.11</v>
+      </c>
+      <c r="AS97">
+        <v>1.04</v>
+      </c>
+      <c r="AT97">
+        <v>3.15</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>20</v>
+      </c>
+      <c r="AZ97">
+        <v>5</v>
+      </c>
+      <c r="BA97">
+        <v>10</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>12</v>
+      </c>
+      <c r="BD97">
+        <v>1.07</v>
+      </c>
+      <c r="BE97">
+        <v>13</v>
+      </c>
+      <c r="BF97">
+        <v>11.75</v>
+      </c>
+      <c r="BG97">
+        <v>1.22</v>
+      </c>
+      <c r="BH97">
+        <v>3.65</v>
+      </c>
+      <c r="BI97">
+        <v>1.43</v>
+      </c>
+      <c r="BJ97">
+        <v>2.62</v>
+      </c>
+      <c r="BK97">
+        <v>1.98</v>
+      </c>
+      <c r="BL97">
+        <v>1.82</v>
+      </c>
+      <c r="BM97">
+        <v>2.17</v>
+      </c>
+      <c r="BN97">
+        <v>1.65</v>
+      </c>
+      <c r="BO97">
+        <v>2.93</v>
+      </c>
+      <c r="BP97">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -20939,13 +20939,13 @@
         <v>5</v>
       </c>
       <c r="BA97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB97">
         <v>2</v>
       </c>
       <c r="BC97">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD97">
         <v>1.07</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria Bundesliga_20242025.xlsx
@@ -472,10 +472,10 @@
     <t>['34', '36', '50', '75']</t>
   </si>
   <si>
-    <t>['34', '56']</t>
+    <t>['48', '50']</t>
   </si>
   <si>
-    <t>['48', '50']</t>
+    <t>['34', '56']</t>
   </si>
   <si>
     <t>['39', '67']</t>
@@ -613,10 +613,10 @@
     <t>['41', '48']</t>
   </si>
   <si>
-    <t>['44']</t>
+    <t>['80', '83', '90+2', '90+8']</t>
   </si>
   <si>
-    <t>['80', '83', '90+2', '90+8']</t>
+    <t>['44']</t>
   </si>
   <si>
     <t>['7', '87', '90+4']</t>
@@ -625,10 +625,10 @@
     <t>['20', '48', '78']</t>
   </si>
   <si>
-    <t>['48', '74']</t>
+    <t>['43']</t>
   </si>
   <si>
-    <t>['43']</t>
+    <t>['48', '74']</t>
   </si>
   <si>
     <t>['15', '80', '85']</t>
@@ -16872,7 +16872,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7482747</v>
+        <v>7482752</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16887,10 +16887,10 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -16902,34 +16902,34 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="Q78">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="R78">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S78">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V78">
         <v>2.38</v>
@@ -16938,19 +16938,19 @@
         <v>1.53</v>
       </c>
       <c r="X78">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y78">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z78">
-        <v>1.92</v>
+        <v>5.97</v>
       </c>
       <c r="AA78">
-        <v>2.82</v>
+        <v>1.66</v>
       </c>
       <c r="AB78">
-        <v>4.27</v>
+        <v>2.95</v>
       </c>
       <c r="AC78">
         <v>1.02</v>
@@ -16965,73 +16965,73 @@
         <v>4.5</v>
       </c>
       <c r="AG78">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AH78">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AI78">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ78">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK78">
-        <v>1.2</v>
+        <v>2.55</v>
       </c>
       <c r="AL78">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AM78">
-        <v>2.2</v>
+        <v>1.12</v>
       </c>
       <c r="AN78">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AP78">
-        <v>2.13</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
-        <v>2.16</v>
+        <v>0.96</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT78">
-        <v>3.45</v>
+        <v>2.24</v>
       </c>
       <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
         <v>4</v>
       </c>
-      <c r="AV78">
-        <v>0</v>
-      </c>
       <c r="AW78">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY78">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AZ78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>7</v>
+      </c>
+      <c r="BC78">
         <v>9</v>
-      </c>
-      <c r="BB78">
-        <v>2</v>
-      </c>
-      <c r="BC78">
-        <v>11</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17078,7 +17078,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7482752</v>
+        <v>7482747</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17093,10 +17093,10 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -17108,34 +17108,34 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O79" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="Q79">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="R79">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="T79">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U79">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V79">
         <v>2.38</v>
@@ -17144,19 +17144,19 @@
         <v>1.53</v>
       </c>
       <c r="X79">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y79">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z79">
-        <v>5.97</v>
+        <v>1.92</v>
       </c>
       <c r="AA79">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="AB79">
-        <v>2.95</v>
+        <v>4.27</v>
       </c>
       <c r="AC79">
         <v>1.02</v>
@@ -17171,73 +17171,73 @@
         <v>4.5</v>
       </c>
       <c r="AG79">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AH79">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AI79">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ79">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK79">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="AL79">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AM79">
-        <v>1.12</v>
+        <v>2.2</v>
       </c>
       <c r="AN79">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AP79">
-        <v>0.88</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="AR79">
-        <v>0.96</v>
+        <v>2.16</v>
       </c>
       <c r="AS79">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT79">
-        <v>2.24</v>
+        <v>3.45</v>
       </c>
       <c r="AU79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY79">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AZ79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BA79">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD79">
         <v>0</v>
@@ -18108,7 +18108,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7482758</v>
+        <v>7482756</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18123,10 +18123,10 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18147,166 +18147,166 @@
         <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q84">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="R84">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S84">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T84">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V84">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y84">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z84">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="AA84">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AB84">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="AC84">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD84">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE84">
+        <v>1.28</v>
+      </c>
+      <c r="AF84">
+        <v>3.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.89</v>
+      </c>
+      <c r="AH84">
+        <v>1.99</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.95</v>
+      </c>
+      <c r="AK84">
+        <v>2.3</v>
+      </c>
+      <c r="AL84">
         <v>1.2</v>
       </c>
-      <c r="AF84">
-        <v>4.33</v>
-      </c>
-      <c r="AG84">
-        <v>1.8</v>
-      </c>
-      <c r="AH84">
-        <v>1.88</v>
-      </c>
-      <c r="AI84">
-        <v>1.7</v>
-      </c>
-      <c r="AJ84">
-        <v>2.05</v>
-      </c>
-      <c r="AK84">
-        <v>2.2</v>
-      </c>
-      <c r="AL84">
-        <v>1.18</v>
-      </c>
       <c r="AM84">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AN84">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="AO84">
-        <v>1.14</v>
+        <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="AR84">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS84">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT84">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV84">
         <v>7</v>
       </c>
       <c r="AW84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX84">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ84">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BA84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB84">
+        <v>7</v>
+      </c>
+      <c r="BC84">
         <v>9</v>
       </c>
-      <c r="BC84">
-        <v>10</v>
-      </c>
       <c r="BD84">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="BE84">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF84">
         <v>1.59</v>
       </c>
       <c r="BG84">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="BH84">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="BI84">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BJ84">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="BK84">
+        <v>1.82</v>
+      </c>
+      <c r="BL84">
         <v>1.98</v>
       </c>
-      <c r="BL84">
-        <v>1.82</v>
-      </c>
       <c r="BM84">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="BN84">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="BO84">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BP84">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18314,7 +18314,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7482756</v>
+        <v>7482757</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18329,190 +18329,190 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q85">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="R85">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S85">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="T85">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V85">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W85">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y85">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z85">
-        <v>5</v>
+        <v>2.65</v>
       </c>
       <c r="AA85">
-        <v>4.05</v>
+        <v>3.35</v>
       </c>
       <c r="AB85">
-        <v>1.58</v>
+        <v>2.49</v>
       </c>
       <c r="AC85">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE85">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AG85">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="AH85">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="AI85">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ85">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK85">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="AL85">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM85">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP85">
         <v>0.75</v>
       </c>
       <c r="AQ85">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS85">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AT85">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="AU85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW85">
         <v>3</v>
       </c>
       <c r="AX85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>26</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>11</v>
+      </c>
+      <c r="BC85">
+        <v>13</v>
+      </c>
+      <c r="BD85">
+        <v>1.91</v>
+      </c>
+      <c r="BE85">
         <v>8</v>
       </c>
-      <c r="AZ85">
-        <v>18</v>
-      </c>
-      <c r="BA85">
-        <v>2</v>
-      </c>
-      <c r="BB85">
-        <v>7</v>
-      </c>
-      <c r="BC85">
-        <v>9</v>
-      </c>
-      <c r="BD85">
-        <v>2.78</v>
-      </c>
-      <c r="BE85">
-        <v>8.5</v>
-      </c>
       <c r="BF85">
+        <v>2.2</v>
+      </c>
+      <c r="BG85">
+        <v>1.25</v>
+      </c>
+      <c r="BH85">
+        <v>3.58</v>
+      </c>
+      <c r="BI85">
+        <v>1.45</v>
+      </c>
+      <c r="BJ85">
+        <v>2.55</v>
+      </c>
+      <c r="BK85">
+        <v>1.75</v>
+      </c>
+      <c r="BL85">
+        <v>1.96</v>
+      </c>
+      <c r="BM85">
+        <v>2.21</v>
+      </c>
+      <c r="BN85">
         <v>1.59</v>
       </c>
-      <c r="BG85">
-        <v>1.27</v>
-      </c>
-      <c r="BH85">
-        <v>3.38</v>
-      </c>
-      <c r="BI85">
-        <v>1.49</v>
-      </c>
-      <c r="BJ85">
-        <v>2.44</v>
-      </c>
-      <c r="BK85">
-        <v>1.82</v>
-      </c>
-      <c r="BL85">
-        <v>1.98</v>
-      </c>
-      <c r="BM85">
-        <v>2.32</v>
-      </c>
-      <c r="BN85">
-        <v>1.54</v>
-      </c>
       <c r="BO85">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BP85">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18520,7 +18520,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7482757</v>
+        <v>7482758</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18535,190 +18535,190 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="P86" t="s">
         <v>200</v>
       </c>
       <c r="Q86">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R86">
+        <v>2.38</v>
+      </c>
+      <c r="S86">
+        <v>2.25</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.5</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>6</v>
+      </c>
+      <c r="Y86">
+        <v>1.13</v>
+      </c>
+      <c r="Z86">
+        <v>3.85</v>
+      </c>
+      <c r="AA86">
+        <v>3.95</v>
+      </c>
+      <c r="AB86">
+        <v>1.77</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>17</v>
+      </c>
+      <c r="AE86">
+        <v>1.2</v>
+      </c>
+      <c r="AF86">
+        <v>4.33</v>
+      </c>
+      <c r="AG86">
+        <v>1.8</v>
+      </c>
+      <c r="AH86">
+        <v>1.88</v>
+      </c>
+      <c r="AI86">
+        <v>1.7</v>
+      </c>
+      <c r="AJ86">
+        <v>2.05</v>
+      </c>
+      <c r="AK86">
         <v>2.2</v>
       </c>
-      <c r="S86">
-        <v>3.1</v>
-      </c>
-      <c r="T86">
-        <v>1.4</v>
-      </c>
-      <c r="U86">
-        <v>2.75</v>
-      </c>
-      <c r="V86">
-        <v>2.75</v>
-      </c>
-      <c r="W86">
-        <v>1.4</v>
-      </c>
-      <c r="X86">
-        <v>8</v>
-      </c>
-      <c r="Y86">
-        <v>1.08</v>
-      </c>
-      <c r="Z86">
-        <v>2.65</v>
-      </c>
-      <c r="AA86">
-        <v>3.35</v>
-      </c>
-      <c r="AB86">
-        <v>2.49</v>
-      </c>
-      <c r="AC86">
-        <v>1.05</v>
-      </c>
-      <c r="AD86">
+      <c r="AL86">
+        <v>1.18</v>
+      </c>
+      <c r="AM86">
+        <v>1.2</v>
+      </c>
+      <c r="AN86">
+        <v>1.57</v>
+      </c>
+      <c r="AO86">
+        <v>1.14</v>
+      </c>
+      <c r="AP86">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86">
+        <v>1.13</v>
+      </c>
+      <c r="AR86">
+        <v>1.2</v>
+      </c>
+      <c r="AS86">
+        <v>1.37</v>
+      </c>
+      <c r="AT86">
+        <v>2.57</v>
+      </c>
+      <c r="AU86">
+        <v>2</v>
+      </c>
+      <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
+        <v>1</v>
+      </c>
+      <c r="AX86">
         <v>11</v>
       </c>
-      <c r="AE86">
-        <v>1.3</v>
-      </c>
-      <c r="AF86">
-        <v>3.5</v>
-      </c>
-      <c r="AG86">
-        <v>2.01</v>
-      </c>
-      <c r="AH86">
-        <v>1.87</v>
-      </c>
-      <c r="AI86">
-        <v>1.67</v>
-      </c>
-      <c r="AJ86">
-        <v>2.1</v>
-      </c>
-      <c r="AK86">
-        <v>1.52</v>
-      </c>
-      <c r="AL86">
-        <v>1.25</v>
-      </c>
-      <c r="AM86">
-        <v>1.47</v>
-      </c>
-      <c r="AN86">
-        <v>1</v>
-      </c>
-      <c r="AO86">
-        <v>1.5</v>
-      </c>
-      <c r="AP86">
-        <v>0.75</v>
-      </c>
-      <c r="AQ86">
-        <v>1.71</v>
-      </c>
-      <c r="AR86">
-        <v>1.46</v>
-      </c>
-      <c r="AS86">
-        <v>1.38</v>
-      </c>
-      <c r="AT86">
-        <v>2.84</v>
-      </c>
-      <c r="AU86">
-        <v>7</v>
-      </c>
-      <c r="AV86">
-        <v>8</v>
-      </c>
-      <c r="AW86">
-        <v>3</v>
-      </c>
-      <c r="AX86">
-        <v>9</v>
-      </c>
       <c r="AY86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AZ86">
         <v>26</v>
       </c>
       <c r="BA86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB86">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC86">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD86">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="BE86">
         <v>8</v>
       </c>
       <c r="BF86">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="BG86">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BH86">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="BI86">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="BJ86">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="BK86">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="BL86">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="BM86">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="BN86">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="BO86">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP86">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -19550,7 +19550,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7482759</v>
+        <v>7482760</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19565,16 +19565,16 @@
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -19583,10 +19583,10 @@
         <v>2</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O91" t="s">
         <v>152</v>
@@ -19595,160 +19595,160 @@
         <v>203</v>
       </c>
       <c r="Q91">
+        <v>3.25</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>3.25</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>2.75</v>
+      </c>
+      <c r="AA91">
+        <v>3.4</v>
+      </c>
+      <c r="AB91">
         <v>2.4</v>
       </c>
-      <c r="R91">
-        <v>2.3</v>
-      </c>
-      <c r="S91">
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.3</v>
+      </c>
+      <c r="AF91">
+        <v>3.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.91</v>
+      </c>
+      <c r="AH91">
+        <v>1.83</v>
+      </c>
+      <c r="AI91">
+        <v>1.75</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>1.5</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.47</v>
+      </c>
+      <c r="AN91">
+        <v>1.38</v>
+      </c>
+      <c r="AO91">
+        <v>1.86</v>
+      </c>
+      <c r="AP91">
+        <v>1.56</v>
+      </c>
+      <c r="AQ91">
+        <v>1.63</v>
+      </c>
+      <c r="AR91">
+        <v>1.53</v>
+      </c>
+      <c r="AS91">
+        <v>1.15</v>
+      </c>
+      <c r="AT91">
+        <v>2.68</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>8</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>12</v>
+      </c>
+      <c r="AZ91">
+        <v>5</v>
+      </c>
+      <c r="BA91">
         <v>4</v>
       </c>
-      <c r="T91">
-        <v>1.3</v>
-      </c>
-      <c r="U91">
-        <v>3.4</v>
-      </c>
-      <c r="V91">
-        <v>2.5</v>
-      </c>
-      <c r="W91">
-        <v>1.5</v>
-      </c>
-      <c r="X91">
-        <v>6</v>
-      </c>
-      <c r="Y91">
-        <v>1.13</v>
-      </c>
-      <c r="Z91">
-        <v>1.85</v>
-      </c>
-      <c r="AA91">
-        <v>3.6</v>
-      </c>
-      <c r="AB91">
+      <c r="BB91">
         <v>4</v>
       </c>
-      <c r="AC91">
-        <v>1.03</v>
-      </c>
-      <c r="AD91">
-        <v>15</v>
-      </c>
-      <c r="AE91">
-        <v>1.2</v>
-      </c>
-      <c r="AF91">
-        <v>4.33</v>
-      </c>
-      <c r="AG91">
-        <v>1.58</v>
-      </c>
-      <c r="AH91">
-        <v>2.2</v>
-      </c>
-      <c r="AI91">
-        <v>1.57</v>
-      </c>
-      <c r="AJ91">
-        <v>2.25</v>
-      </c>
-      <c r="AK91">
-        <v>1.25</v>
-      </c>
-      <c r="AL91">
-        <v>1.22</v>
-      </c>
-      <c r="AM91">
-        <v>1.9</v>
-      </c>
-      <c r="AN91">
-        <v>2.17</v>
-      </c>
-      <c r="AO91">
-        <v>1.14</v>
-      </c>
-      <c r="AP91">
-        <v>2.13</v>
-      </c>
-      <c r="AQ91">
-        <v>1.13</v>
-      </c>
-      <c r="AR91">
-        <v>2.1</v>
-      </c>
-      <c r="AS91">
-        <v>1.29</v>
-      </c>
-      <c r="AT91">
-        <v>3.39</v>
-      </c>
-      <c r="AU91">
-        <v>9</v>
-      </c>
-      <c r="AV91">
-        <v>13</v>
-      </c>
-      <c r="AW91">
-        <v>9</v>
-      </c>
-      <c r="AX91">
-        <v>3</v>
-      </c>
-      <c r="AY91">
-        <v>22</v>
-      </c>
-      <c r="AZ91">
-        <v>19</v>
-      </c>
-      <c r="BA91">
-        <v>5</v>
-      </c>
-      <c r="BB91">
-        <v>11</v>
-      </c>
       <c r="BC91">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD91">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="BE91">
         <v>8</v>
       </c>
       <c r="BF91">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="BG91">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BH91">
-        <v>2.98</v>
+        <v>3.38</v>
       </c>
       <c r="BI91">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BJ91">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="BK91">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BL91">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BM91">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="BN91">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="BO91">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="BP91">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19756,7 +19756,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7482760</v>
+        <v>7482759</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19771,16 +19771,16 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -19789,10 +19789,10 @@
         <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O92" t="s">
         <v>153</v>
@@ -19801,160 +19801,160 @@
         <v>204</v>
       </c>
       <c r="Q92">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R92">
+        <v>2.3</v>
+      </c>
+      <c r="S92">
+        <v>4</v>
+      </c>
+      <c r="T92">
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <v>3.4</v>
+      </c>
+      <c r="V92">
+        <v>2.5</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>6</v>
+      </c>
+      <c r="Y92">
+        <v>1.13</v>
+      </c>
+      <c r="Z92">
+        <v>1.85</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>4</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>15</v>
+      </c>
+      <c r="AE92">
+        <v>1.2</v>
+      </c>
+      <c r="AF92">
+        <v>4.33</v>
+      </c>
+      <c r="AG92">
+        <v>1.58</v>
+      </c>
+      <c r="AH92">
+        <v>2.2</v>
+      </c>
+      <c r="AI92">
+        <v>1.57</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.25</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
+        <v>1.9</v>
+      </c>
+      <c r="AN92">
+        <v>2.17</v>
+      </c>
+      <c r="AO92">
+        <v>1.14</v>
+      </c>
+      <c r="AP92">
+        <v>2.13</v>
+      </c>
+      <c r="AQ92">
+        <v>1.13</v>
+      </c>
+      <c r="AR92">
         <v>2.1</v>
       </c>
-      <c r="S92">
-        <v>3.25</v>
-      </c>
-      <c r="T92">
-        <v>1.4</v>
-      </c>
-      <c r="U92">
-        <v>2.75</v>
-      </c>
-      <c r="V92">
-        <v>3</v>
-      </c>
-      <c r="W92">
-        <v>1.36</v>
-      </c>
-      <c r="X92">
-        <v>8</v>
-      </c>
-      <c r="Y92">
-        <v>1.08</v>
-      </c>
-      <c r="Z92">
-        <v>2.75</v>
-      </c>
-      <c r="AA92">
-        <v>3.4</v>
-      </c>
-      <c r="AB92">
-        <v>2.4</v>
-      </c>
-      <c r="AC92">
-        <v>1.05</v>
-      </c>
-      <c r="AD92">
+      <c r="AS92">
+        <v>1.29</v>
+      </c>
+      <c r="AT92">
+        <v>3.39</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
+        <v>13</v>
+      </c>
+      <c r="AW92">
+        <v>9</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>22</v>
+      </c>
+      <c r="AZ92">
+        <v>19</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
         <v>11</v>
       </c>
-      <c r="AE92">
-        <v>1.3</v>
-      </c>
-      <c r="AF92">
-        <v>3.5</v>
-      </c>
-      <c r="AG92">
-        <v>1.91</v>
-      </c>
-      <c r="AH92">
-        <v>1.83</v>
-      </c>
-      <c r="AI92">
-        <v>1.75</v>
-      </c>
-      <c r="AJ92">
-        <v>2</v>
-      </c>
-      <c r="AK92">
-        <v>1.5</v>
-      </c>
-      <c r="AL92">
-        <v>1.28</v>
-      </c>
-      <c r="AM92">
-        <v>1.47</v>
-      </c>
-      <c r="AN92">
-        <v>1.38</v>
-      </c>
-      <c r="AO92">
-        <v>1.86</v>
-      </c>
-      <c r="AP92">
-        <v>1.56</v>
-      </c>
-      <c r="AQ92">
-        <v>1.63</v>
-      </c>
-      <c r="AR92">
-        <v>1.53</v>
-      </c>
-      <c r="AS92">
-        <v>1.15</v>
-      </c>
-      <c r="AT92">
-        <v>2.68</v>
-      </c>
-      <c r="AU92">
-        <v>3</v>
-      </c>
-      <c r="AV92">
-        <v>3</v>
-      </c>
-      <c r="AW92">
-        <v>8</v>
-      </c>
-      <c r="AX92">
-        <v>1</v>
-      </c>
-      <c r="AY92">
-        <v>12</v>
-      </c>
-      <c r="AZ92">
-        <v>5</v>
-      </c>
-      <c r="BA92">
-        <v>4</v>
-      </c>
-      <c r="BB92">
-        <v>4</v>
-      </c>
       <c r="BC92">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD92">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BE92">
         <v>8</v>
       </c>
       <c r="BF92">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="BG92">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BH92">
-        <v>3.38</v>
+        <v>2.98</v>
       </c>
       <c r="BI92">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BJ92">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="BK92">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BL92">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="BM92">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN92">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="BO92">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="BP92">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="93" spans="1:68">
